--- a/Documents/Larvae Data Sheet.xlsx
+++ b/Documents/Larvae Data Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Trays" sheetId="1" r:id="rId1"/>
@@ -54,15 +54,6 @@
     <t>Cohort</t>
   </si>
   <si>
-    <t>Tray #1 UZ18-16</t>
-  </si>
-  <si>
-    <t>Tray #2 UZ19-16</t>
-  </si>
-  <si>
-    <t>Tray #3 UZ19-12</t>
-  </si>
-  <si>
     <t>Sample #</t>
   </si>
   <si>
@@ -667,6 +658,15 @@
   </si>
   <si>
     <t xml:space="preserve">Frass </t>
+  </si>
+  <si>
+    <t>Tray 1 UZ16-0518</t>
+  </si>
+  <si>
+    <t>Tray 2 UZ16-0519</t>
+  </si>
+  <si>
+    <t>Tray 3 UZ12-0519</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1269,7 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1291,7 +1291,7 @@
     <row r="2" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1373,7 +1373,7 @@
     <row r="8" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     <row r="14" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1547,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,36 +1570,36 @@
         <v>7</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>212</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
@@ -1608,10 +1608,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="21">
         <f>E2-D2</f>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
@@ -1641,10 +1641,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F3" s="21">
         <f t="shared" ref="F3:F66" si="0">E3-D3</f>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="18">
         <v>3</v>
@@ -1668,10 +1668,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F4" s="21">
         <f t="shared" si="0"/>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="18">
         <v>4</v>
@@ -1695,10 +1695,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" s="21">
         <f t="shared" si="0"/>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="18">
         <v>5</v>
@@ -1722,10 +1722,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F6" s="21">
         <f t="shared" si="0"/>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="18">
         <v>6</v>
@@ -1749,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" s="18">
         <v>7</v>
@@ -1776,10 +1776,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" si="0"/>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="18">
         <v>8</v>
@@ -1803,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F9" s="21">
         <f t="shared" si="0"/>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="18">
         <v>9</v>
@@ -1830,10 +1830,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="18">
         <v>10</v>
@@ -1857,10 +1857,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F11" s="21">
         <f t="shared" si="0"/>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" s="18">
         <v>11</v>
@@ -1884,10 +1884,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12" s="21">
         <f t="shared" si="0"/>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="18">
         <v>12</v>
@@ -1911,10 +1911,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F13" s="21">
         <f t="shared" si="0"/>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" s="18">
         <v>13</v>
@@ -1938,10 +1938,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14" s="21">
         <f t="shared" si="0"/>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" s="18">
         <v>14</v>
@@ -1965,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" s="21">
         <f t="shared" si="0"/>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16" s="18">
         <v>15</v>
@@ -1992,10 +1992,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F16" s="21">
         <f t="shared" si="0"/>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" s="18">
         <v>16</v>
@@ -2019,10 +2019,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F17" s="21">
         <f t="shared" si="0"/>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" s="18">
         <v>17</v>
@@ -2046,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F18" s="21">
         <f t="shared" si="0"/>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19" s="18">
         <v>18</v>
@@ -2073,10 +2073,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F19" s="21">
         <f t="shared" si="0"/>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" s="18">
         <v>19</v>
@@ -2100,10 +2100,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F20" s="21">
         <f t="shared" si="0"/>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B21" s="18">
         <v>20</v>
@@ -2127,10 +2127,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F21" s="21">
         <f t="shared" si="0"/>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" s="18">
         <v>21</v>
@@ -2154,10 +2154,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F22" s="21">
         <f t="shared" si="0"/>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B23" s="18">
         <v>22</v>
@@ -2181,10 +2181,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F23" s="21">
         <f t="shared" si="0"/>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B24" s="18">
         <v>23</v>
@@ -2208,10 +2208,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F24" s="21">
         <f t="shared" si="0"/>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B25" s="18">
         <v>24</v>
@@ -2235,10 +2235,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F25" s="21">
         <f t="shared" si="0"/>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26" s="18">
         <v>25</v>
@@ -2262,10 +2262,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F26" s="21">
         <f t="shared" si="0"/>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B27" s="18">
         <v>26</v>
@@ -2289,10 +2289,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F27" s="21">
         <f t="shared" si="0"/>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B28" s="18">
         <v>27</v>
@@ -2316,10 +2316,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F28" s="21">
         <f t="shared" si="0"/>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B29" s="18">
         <v>28</v>
@@ -2343,10 +2343,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F29" s="21">
         <f t="shared" si="0"/>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B30" s="18">
         <v>29</v>
@@ -2370,10 +2370,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F30" s="21">
         <f t="shared" si="0"/>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B31" s="18">
         <v>30</v>
@@ -2397,10 +2397,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F31" s="21">
         <f t="shared" si="0"/>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B32" s="18">
         <v>31</v>
@@ -2424,10 +2424,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F32" s="21">
         <f t="shared" si="0"/>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B33" s="18">
         <v>32</v>
@@ -2451,10 +2451,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F33" s="21">
         <f t="shared" si="0"/>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="34" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B34" s="18">
         <v>1</v>
@@ -2478,10 +2478,10 @@
         <v>2</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F34" s="21">
         <f t="shared" si="0"/>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B35" s="18">
         <v>2</v>
@@ -2505,10 +2505,10 @@
         <v>2</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F35" s="21">
         <f t="shared" si="0"/>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="36" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B36" s="18">
         <v>3</v>
@@ -2532,10 +2532,10 @@
         <v>2</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F36" s="21">
         <f t="shared" si="0"/>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B37" s="18">
         <v>4</v>
@@ -2559,10 +2559,10 @@
         <v>2</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F37" s="21">
         <f t="shared" si="0"/>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B38" s="18">
         <v>5</v>
@@ -2586,10 +2586,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F38" s="21">
         <f t="shared" si="0"/>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="39" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B39" s="18">
         <v>6</v>
@@ -2613,10 +2613,10 @@
         <v>2</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F39" s="21">
         <f t="shared" si="0"/>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="40" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B40" s="18">
         <v>7</v>
@@ -2640,10 +2640,10 @@
         <v>2</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F40" s="21">
         <f t="shared" si="0"/>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="41" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B41" s="18">
         <v>8</v>
@@ -2667,10 +2667,10 @@
         <v>2</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F41" s="21">
         <f t="shared" si="0"/>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="42" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B42" s="18">
         <v>9</v>
@@ -2694,10 +2694,10 @@
         <v>2</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F42" s="21">
         <f t="shared" si="0"/>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B43" s="18">
         <v>10</v>
@@ -2721,10 +2721,10 @@
         <v>2</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F43" s="21">
         <f t="shared" si="0"/>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="44" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B44" s="18">
         <v>11</v>
@@ -2748,10 +2748,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F44" s="21">
         <f t="shared" si="0"/>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="45" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B45" s="18">
         <v>12</v>
@@ -2775,10 +2775,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F45" s="21">
         <f t="shared" si="0"/>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="46" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B46" s="18">
         <v>13</v>
@@ -2802,10 +2802,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F46" s="21">
         <f t="shared" si="0"/>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="47" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B47" s="18">
         <v>14</v>
@@ -2829,10 +2829,10 @@
         <v>2</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F47" s="21">
         <f t="shared" si="0"/>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="48" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B48" s="18">
         <v>15</v>
@@ -2856,10 +2856,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F48" s="21">
         <f t="shared" si="0"/>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="49" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B49" s="18">
         <v>16</v>
@@ -2883,10 +2883,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F49" s="21">
         <f t="shared" si="0"/>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="50" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B50" s="18">
         <v>17</v>
@@ -2910,10 +2910,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F50" s="21">
         <f t="shared" si="0"/>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="51" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B51" s="18">
         <v>18</v>
@@ -2937,10 +2937,10 @@
         <v>2</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F51" s="21">
         <f t="shared" si="0"/>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="52" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B52" s="18">
         <v>19</v>
@@ -2964,10 +2964,10 @@
         <v>2</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F52" s="21">
         <f t="shared" si="0"/>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B53" s="18">
         <v>20</v>
@@ -2991,10 +2991,10 @@
         <v>2</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F53" s="21">
         <f t="shared" si="0"/>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="54" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B54" s="18">
         <v>21</v>
@@ -3018,10 +3018,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F54" s="21">
         <f t="shared" si="0"/>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="55" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B55" s="18">
         <v>22</v>
@@ -3045,10 +3045,10 @@
         <v>2</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F55" s="21">
         <f t="shared" si="0"/>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="56" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B56" s="18">
         <v>23</v>
@@ -3066,10 +3066,10 @@
         <v>2</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F56" s="21">
         <f t="shared" si="0"/>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="57" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B57" s="18">
         <v>24</v>
@@ -3087,10 +3087,10 @@
         <v>2</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F57" s="21">
         <f t="shared" si="0"/>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="58" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B58" s="18">
         <v>25</v>
@@ -3108,10 +3108,10 @@
         <v>2</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F58" s="21">
         <f t="shared" si="0"/>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="59" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B59" s="18">
         <v>26</v>
@@ -3129,10 +3129,10 @@
         <v>2</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F59" s="21">
         <f t="shared" si="0"/>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="60" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B60" s="18">
         <v>27</v>
@@ -3150,10 +3150,10 @@
         <v>2</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F60" s="21">
         <f t="shared" si="0"/>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="61" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B61" s="18">
         <v>28</v>
@@ -3171,10 +3171,10 @@
         <v>2</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F61" s="21">
         <f t="shared" si="0"/>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="62" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B62" s="18">
         <v>29</v>
@@ -3192,10 +3192,10 @@
         <v>2</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F62" s="21">
         <f t="shared" si="0"/>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="63" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B63" s="18">
         <v>30</v>
@@ -3213,10 +3213,10 @@
         <v>2</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F63" s="21">
         <f t="shared" si="0"/>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="64" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B64" s="18">
         <v>31</v>
@@ -3234,10 +3234,10 @@
         <v>2</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F64" s="21">
         <f t="shared" si="0"/>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B65" s="18">
         <v>32</v>
@@ -3255,10 +3255,10 @@
         <v>2</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F65" s="21">
         <f t="shared" si="0"/>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B66" s="18">
         <v>1</v>
@@ -3276,10 +3276,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F66" s="21">
         <f t="shared" si="0"/>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B67" s="18">
         <v>2</v>
@@ -3297,10 +3297,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F67" s="21">
         <f t="shared" ref="F67:F97" si="1">E67-D67</f>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="68" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B68" s="18">
         <v>3</v>
@@ -3318,10 +3318,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F68" s="21">
         <f t="shared" si="1"/>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="69" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B69" s="18">
         <v>4</v>
@@ -3339,10 +3339,10 @@
         <v>3</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F69" s="21">
         <f t="shared" si="1"/>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="70" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B70" s="18">
         <v>5</v>
@@ -3360,10 +3360,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F70" s="21">
         <f t="shared" si="1"/>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="71" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B71" s="18">
         <v>6</v>
@@ -3381,10 +3381,10 @@
         <v>3</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F71" s="21">
         <f t="shared" si="1"/>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B72" s="18">
         <v>7</v>
@@ -3402,10 +3402,10 @@
         <v>3</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F72" s="21">
         <f t="shared" si="1"/>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B73" s="18">
         <v>8</v>
@@ -3423,10 +3423,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F73" s="21">
         <f t="shared" si="1"/>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B74" s="18">
         <v>9</v>
@@ -3444,10 +3444,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F74" s="21">
         <f t="shared" si="1"/>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B75" s="18">
         <v>10</v>
@@ -3465,10 +3465,10 @@
         <v>3</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F75" s="21">
         <f t="shared" si="1"/>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B76" s="18">
         <v>11</v>
@@ -3486,10 +3486,10 @@
         <v>3</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F76" s="21">
         <f t="shared" si="1"/>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="77" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B77" s="18">
         <v>12</v>
@@ -3507,10 +3507,10 @@
         <v>3</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F77" s="21">
         <f t="shared" si="1"/>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="78" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B78" s="18">
         <v>13</v>
@@ -3528,10 +3528,10 @@
         <v>3</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F78" s="21">
         <f t="shared" si="1"/>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="79" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B79" s="18">
         <v>14</v>
@@ -3549,10 +3549,10 @@
         <v>3</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F79" s="21">
         <f t="shared" si="1"/>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="80" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B80" s="18">
         <v>15</v>
@@ -3570,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F80" s="21">
         <f t="shared" si="1"/>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B81" s="18">
         <v>16</v>
@@ -3591,10 +3591,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F81" s="21">
         <f t="shared" si="1"/>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B82" s="18">
         <v>17</v>
@@ -3612,10 +3612,10 @@
         <v>3</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F82" s="21">
         <f t="shared" si="1"/>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="83" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B83" s="18">
         <v>18</v>
@@ -3633,10 +3633,10 @@
         <v>3</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F83" s="21">
         <f t="shared" si="1"/>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B84" s="18">
         <v>19</v>
@@ -3654,10 +3654,10 @@
         <v>3</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F84" s="21">
         <f t="shared" si="1"/>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B85" s="18">
         <v>20</v>
@@ -3675,10 +3675,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F85" s="21">
         <f t="shared" si="1"/>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B86" s="18">
         <v>21</v>
@@ -3696,10 +3696,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F86" s="21">
         <f t="shared" si="1"/>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="87" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B87" s="18">
         <v>22</v>
@@ -3717,10 +3717,10 @@
         <v>3</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F87" s="21">
         <f t="shared" si="1"/>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B88" s="18">
         <v>23</v>
@@ -3738,10 +3738,10 @@
         <v>3</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F88" s="21">
         <f t="shared" si="1"/>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="89" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B89" s="18">
         <v>24</v>
@@ -3759,10 +3759,10 @@
         <v>3</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F89" s="21">
         <f t="shared" si="1"/>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="90" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B90" s="18">
         <v>25</v>
@@ -3780,10 +3780,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F90" s="21">
         <f t="shared" si="1"/>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="91" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B91" s="18">
         <v>26</v>
@@ -3801,10 +3801,10 @@
         <v>3</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F91" s="21">
         <f t="shared" si="1"/>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="92" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B92" s="18">
         <v>27</v>
@@ -3822,10 +3822,10 @@
         <v>3</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F92" s="21">
         <f t="shared" si="1"/>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="93" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B93" s="18">
         <v>28</v>
@@ -3843,10 +3843,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F93" s="21">
         <f t="shared" si="1"/>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="94" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B94" s="18">
         <v>29</v>
@@ -3864,10 +3864,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F94" s="21">
         <f t="shared" si="1"/>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="95" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B95" s="18">
         <v>30</v>
@@ -3885,10 +3885,10 @@
         <v>3</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F95" s="21">
         <f t="shared" si="1"/>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="96" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B96" s="18">
         <v>31</v>
@@ -3906,10 +3906,10 @@
         <v>3</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F96" s="21">
         <f t="shared" si="1"/>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="97" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B97" s="18">
         <v>32</v>
@@ -3927,10 +3927,10 @@
         <v>3</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F97" s="21">
         <f t="shared" si="1"/>

--- a/Documents/Larvae Data Sheet.xlsx
+++ b/Documents/Larvae Data Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chembug\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elapa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B614ED3-B7E1-4DB1-82E9-EF40817840E3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trays" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Trays!$A$1:$J$19</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -672,7 +673,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -888,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -926,9 +927,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -949,7 +947,15 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1263,34 +1269,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.15625" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="25" style="11" customWidth="1"/>
-    <col min="2" max="16384" width="16.140625" style="12"/>
+    <col min="2" max="16384" width="16.15625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8"/>
+    <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="14" t="s">
         <v>210</v>
       </c>
       <c r="B3" s="1">
@@ -1318,20 +1324,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="14"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1350,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1357,7 +1363,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1370,9 +1376,9 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+    <row r="8" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8"/>
+    <row r="9" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="15" t="s">
         <v>211</v>
       </c>
       <c r="B9" s="1">
@@ -1400,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1413,7 +1419,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1426,7 +1432,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -1439,7 +1445,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -1452,9 +1458,9 @@
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+    <row r="14" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8"/>
+    <row r="15" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A15" s="15" t="s">
         <v>212</v>
       </c>
       <c r="B15" s="1">
@@ -1482,7 +1488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1495,7 +1501,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1508,7 +1514,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1521,7 +1527,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
@@ -1544,2401 +1550,3057 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.68359375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="11.83984375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.68359375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.26171875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="20.83984375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="14.68359375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="22.15625" customWidth="1"/>
+    <col min="8" max="8" width="24.68359375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="10.41796875" style="23" customWidth="1"/>
+    <col min="10" max="10" width="21.68359375" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.75">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <f>E2-D2</f>
         <v>0.8575999999999997</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="22">
+      <c r="G2" s="16"/>
+      <c r="H2" s="20">
         <f>F2-G2</f>
         <v>0.8575999999999997</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="22">
+      <c r="I2" s="22"/>
+      <c r="J2" s="20">
         <f>I2-H2</f>
         <v>-0.8575999999999997</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>2</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <f t="shared" ref="F3:F66" si="0">E3-D3</f>
         <v>1.2922</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="20">
+        <f t="shared" ref="H3:H66" si="1">F3-G3</f>
+        <v>1.2922</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="20">
+        <f t="shared" ref="J3:J66" si="2">I3-H3</f>
+        <v>-1.2922</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>3</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <f t="shared" si="0"/>
         <v>2.6353</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="20">
+        <f t="shared" si="1"/>
+        <v>2.6353</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.6353</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>4</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <f t="shared" si="0"/>
         <v>1.2323000000000002</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="20">
+        <f t="shared" si="1"/>
+        <v>1.2323000000000002</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.2323000000000002</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>5</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>1</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <f t="shared" si="0"/>
         <v>1.4620000000000002</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4620000000000002</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.4620000000000002</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>6</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>1</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <f t="shared" si="0"/>
         <v>1.0876000000000001</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0876000000000001</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.0876000000000001</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>7</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>1</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <f t="shared" si="0"/>
         <v>2.0972</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="20">
+        <f t="shared" si="1"/>
+        <v>2.0972</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.0972</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>8</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>1</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>1.9435999999999998</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="20">
+        <f t="shared" si="1"/>
+        <v>1.9435999999999998</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.9435999999999998</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>9</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>1</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>1.41</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="20">
+        <f t="shared" si="1"/>
+        <v>1.41</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.41</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>10</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>1</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>2.4809999999999999</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="20">
+        <f t="shared" si="1"/>
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.4809999999999999</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>11</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>1</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
         <v>2.2110000000000003</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="20">
+        <f t="shared" si="1"/>
+        <v>2.2110000000000003</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.2110000000000003</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>12</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>1</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <f t="shared" si="0"/>
         <v>1.5587999999999997</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="20">
+        <f t="shared" si="1"/>
+        <v>1.5587999999999997</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.5587999999999997</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>13</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>1</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <f t="shared" si="0"/>
         <v>1.7085000000000001</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="20">
+        <f t="shared" si="1"/>
+        <v>1.7085000000000001</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.7085000000000001</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>14</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>1</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <f t="shared" si="0"/>
         <v>2.1286999999999998</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="G15" s="16"/>
+      <c r="H15" s="20">
+        <f t="shared" si="1"/>
+        <v>2.1286999999999998</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.1286999999999998</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>15</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>1</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <f t="shared" si="0"/>
         <v>1.7517</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="20">
+        <f t="shared" si="1"/>
+        <v>1.7517</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.7517</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>16</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>1</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <f t="shared" si="0"/>
         <v>2.5247000000000002</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="20">
+        <f t="shared" si="1"/>
+        <v>2.5247000000000002</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.5247000000000002</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>17</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>1</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <f t="shared" si="0"/>
         <v>1.5149999999999999</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="G18" s="16"/>
+      <c r="H18" s="20">
+        <f t="shared" si="1"/>
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.5149999999999999</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>18</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>1</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <f t="shared" si="0"/>
         <v>1.7078</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.7078</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.7078</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>19</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>1</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <f t="shared" si="0"/>
         <v>2.3321000000000001</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="G20" s="16"/>
+      <c r="H20" s="20">
+        <f t="shared" si="1"/>
+        <v>2.3321000000000001</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.3321000000000001</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>20</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <v>1</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <f t="shared" si="0"/>
         <v>2.0987</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="20">
+        <f t="shared" si="1"/>
+        <v>2.0987</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.0987</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <v>21</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>1</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <f t="shared" si="0"/>
         <v>1.6801999999999999</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-    </row>
-    <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="G22" s="16"/>
+      <c r="H22" s="20">
+        <f t="shared" si="1"/>
+        <v>1.6801999999999999</v>
+      </c>
+      <c r="I22" s="22"/>
+      <c r="J22" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.6801999999999999</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>22</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="17">
         <v>1</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <f t="shared" si="0"/>
         <v>2.0602999999999998</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="G23" s="16"/>
+      <c r="H23" s="20">
+        <f t="shared" si="1"/>
+        <v>2.0602999999999998</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.0602999999999998</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <v>23</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>1</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="20">
         <f t="shared" si="0"/>
         <v>1.7304999999999999</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="G24" s="16"/>
+      <c r="H24" s="20">
+        <f t="shared" si="1"/>
+        <v>1.7304999999999999</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.7304999999999999</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <v>24</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>1</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <f t="shared" si="0"/>
         <v>1.4317</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-    </row>
-    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="G25" s="16"/>
+      <c r="H25" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4317</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.4317</v>
+      </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>25</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <v>1</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <f t="shared" si="0"/>
         <v>2.1421999999999999</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-    </row>
-    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="G26" s="16"/>
+      <c r="H26" s="20">
+        <f t="shared" si="1"/>
+        <v>2.1421999999999999</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.1421999999999999</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A27" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <v>26</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="17">
         <v>1</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <f t="shared" si="0"/>
         <v>2.5978000000000003</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-    </row>
-    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="G27" s="16"/>
+      <c r="H27" s="20">
+        <f t="shared" si="1"/>
+        <v>2.5978000000000003</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.5978000000000003</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A28" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <v>27</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <v>1</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <f t="shared" si="0"/>
         <v>2.0524000000000004</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-    </row>
-    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="G28" s="16"/>
+      <c r="H28" s="20">
+        <f t="shared" si="1"/>
+        <v>2.0524000000000004</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.0524000000000004</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A29" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="17">
         <v>28</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="17">
         <v>1</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <f t="shared" si="0"/>
         <v>2.1457999999999999</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-    </row>
-    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="G29" s="16"/>
+      <c r="H29" s="20">
+        <f t="shared" si="1"/>
+        <v>2.1457999999999999</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.1457999999999999</v>
+      </c>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A30" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <v>29</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="17">
         <v>1</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <f t="shared" si="0"/>
         <v>1.8349999999999997</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-    </row>
-    <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="G30" s="16"/>
+      <c r="H30" s="20">
+        <f t="shared" si="1"/>
+        <v>1.8349999999999997</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.8349999999999997</v>
+      </c>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A31" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="17">
         <v>30</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="17">
         <v>1</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <f t="shared" si="0"/>
         <v>1.373</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="G31" s="16"/>
+      <c r="H31" s="20">
+        <f t="shared" si="1"/>
+        <v>1.373</v>
+      </c>
+      <c r="I31" s="22"/>
+      <c r="J31" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.373</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+    </row>
+    <row r="32" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A32" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="17">
         <v>31</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <v>1</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <f t="shared" si="0"/>
         <v>1.4683999999999997</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-    </row>
-    <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+      <c r="G32" s="16"/>
+      <c r="H32" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4683999999999997</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.4683999999999997</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+    </row>
+    <row r="33" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A33" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="17">
         <v>32</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <v>1</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="20">
         <f t="shared" si="0"/>
         <v>1.4023999999999999</v>
       </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-    </row>
-    <row r="34" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="G33" s="16"/>
+      <c r="H33" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4023999999999999</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.4023999999999999</v>
+      </c>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="17">
         <v>1</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>2</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="20">
         <f t="shared" si="0"/>
         <v>1.4684000000000001</v>
       </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-    </row>
-    <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+      <c r="G34" s="16"/>
+      <c r="H34" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4684000000000001</v>
+      </c>
+      <c r="I34" s="22"/>
+      <c r="J34" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.4684000000000001</v>
+      </c>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <v>2</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="17">
         <v>2</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <f t="shared" si="0"/>
         <v>1.5680000000000001</v>
       </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-    </row>
-    <row r="36" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+      <c r="G35" s="16"/>
+      <c r="H35" s="20">
+        <f t="shared" si="1"/>
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="I35" s="22"/>
+      <c r="J35" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.5680000000000001</v>
+      </c>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+    </row>
+    <row r="36" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="17">
         <v>3</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="17">
         <v>2</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <f t="shared" si="0"/>
         <v>1.9543000000000001</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-    </row>
-    <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="G36" s="16"/>
+      <c r="H36" s="20">
+        <f t="shared" si="1"/>
+        <v>1.9543000000000001</v>
+      </c>
+      <c r="I36" s="22"/>
+      <c r="J36" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.9543000000000001</v>
+      </c>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="17">
         <v>4</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="17">
         <v>2</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="20">
         <f t="shared" si="0"/>
         <v>1.7964</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-    </row>
-    <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="G37" s="16"/>
+      <c r="H37" s="20">
+        <f t="shared" si="1"/>
+        <v>1.7964</v>
+      </c>
+      <c r="I37" s="22"/>
+      <c r="J37" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.7964</v>
+      </c>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="17">
         <v>5</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="17">
         <v>2</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="20">
         <f t="shared" si="0"/>
         <v>2.0362</v>
       </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-    </row>
-    <row r="39" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
+      <c r="G38" s="16"/>
+      <c r="H38" s="20">
+        <f t="shared" si="1"/>
+        <v>2.0362</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.0362</v>
+      </c>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+    </row>
+    <row r="39" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="17">
         <v>6</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="17">
         <v>2</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="20">
         <f t="shared" si="0"/>
         <v>1.8745999999999998</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-    </row>
-    <row r="40" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="G39" s="16"/>
+      <c r="H39" s="20">
+        <f t="shared" si="1"/>
+        <v>1.8745999999999998</v>
+      </c>
+      <c r="I39" s="22"/>
+      <c r="J39" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.8745999999999998</v>
+      </c>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+    </row>
+    <row r="40" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="17">
         <v>7</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="17">
         <v>2</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="20">
         <f t="shared" si="0"/>
         <v>2.2610999999999999</v>
       </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-    </row>
-    <row r="41" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
+      <c r="G40" s="16"/>
+      <c r="H40" s="20">
+        <f t="shared" si="1"/>
+        <v>2.2610999999999999</v>
+      </c>
+      <c r="I40" s="22"/>
+      <c r="J40" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.2610999999999999</v>
+      </c>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+    </row>
+    <row r="41" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="17">
         <v>8</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="17">
         <v>2</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="20">
         <f t="shared" si="0"/>
         <v>2.3177000000000003</v>
       </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-    </row>
-    <row r="42" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
+      <c r="G41" s="16"/>
+      <c r="H41" s="20">
+        <f t="shared" si="1"/>
+        <v>2.3177000000000003</v>
+      </c>
+      <c r="I41" s="22"/>
+      <c r="J41" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.3177000000000003</v>
+      </c>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+    </row>
+    <row r="42" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="17">
         <v>9</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="17">
         <v>2</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="20">
         <f t="shared" si="0"/>
         <v>1.3845000000000001</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-    </row>
-    <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+      <c r="G42" s="16"/>
+      <c r="H42" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3845000000000001</v>
+      </c>
+      <c r="I42" s="22"/>
+      <c r="J42" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.3845000000000001</v>
+      </c>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+    </row>
+    <row r="43" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="17">
         <v>10</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="17">
         <v>2</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="20">
         <f t="shared" si="0"/>
         <v>1.7791999999999999</v>
       </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-    </row>
-    <row r="44" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
+      <c r="G43" s="16"/>
+      <c r="H43" s="20">
+        <f t="shared" si="1"/>
+        <v>1.7791999999999999</v>
+      </c>
+      <c r="I43" s="22"/>
+      <c r="J43" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.7791999999999999</v>
+      </c>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+    </row>
+    <row r="44" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="17">
         <v>11</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="17">
         <v>2</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="20">
         <f t="shared" si="0"/>
         <v>1.6708999999999998</v>
       </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-    </row>
-    <row r="45" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
+      <c r="G44" s="16"/>
+      <c r="H44" s="20">
+        <f t="shared" si="1"/>
+        <v>1.6708999999999998</v>
+      </c>
+      <c r="I44" s="22"/>
+      <c r="J44" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.6708999999999998</v>
+      </c>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+    </row>
+    <row r="45" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="17">
         <v>12</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="17">
         <v>2</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="20">
         <f t="shared" si="0"/>
         <v>2.0454999999999997</v>
       </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-    </row>
-    <row r="46" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="s">
+      <c r="G45" s="16"/>
+      <c r="H45" s="20">
+        <f t="shared" si="1"/>
+        <v>2.0454999999999997</v>
+      </c>
+      <c r="I45" s="22"/>
+      <c r="J45" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.0454999999999997</v>
+      </c>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+    </row>
+    <row r="46" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="17">
         <v>13</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="17">
         <v>2</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="20">
         <f t="shared" si="0"/>
         <v>1.6638999999999999</v>
       </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-    </row>
-    <row r="47" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
+      <c r="G46" s="16"/>
+      <c r="H46" s="20">
+        <f t="shared" si="1"/>
+        <v>1.6638999999999999</v>
+      </c>
+      <c r="I46" s="22"/>
+      <c r="J46" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.6638999999999999</v>
+      </c>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+    </row>
+    <row r="47" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="17">
         <v>14</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="17">
         <v>2</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="20">
         <f t="shared" si="0"/>
         <v>1.7162999999999997</v>
       </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-    </row>
-    <row r="48" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
+      <c r="G47" s="16"/>
+      <c r="H47" s="20">
+        <f t="shared" si="1"/>
+        <v>1.7162999999999997</v>
+      </c>
+      <c r="I47" s="22"/>
+      <c r="J47" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.7162999999999997</v>
+      </c>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+    </row>
+    <row r="48" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="17">
         <v>15</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="17">
         <v>2</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="20">
         <f t="shared" si="0"/>
         <v>1.9057999999999999</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-    </row>
-    <row r="49" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
+      <c r="G48" s="16"/>
+      <c r="H48" s="20">
+        <f t="shared" si="1"/>
+        <v>1.9057999999999999</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.9057999999999999</v>
+      </c>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+    </row>
+    <row r="49" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="17">
         <v>16</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="17">
         <v>2</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="20">
         <f t="shared" si="0"/>
         <v>2.1303999999999998</v>
       </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-    </row>
-    <row r="50" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
+      <c r="G49" s="16"/>
+      <c r="H49" s="20">
+        <f t="shared" si="1"/>
+        <v>2.1303999999999998</v>
+      </c>
+      <c r="I49" s="22"/>
+      <c r="J49" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.1303999999999998</v>
+      </c>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+    </row>
+    <row r="50" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="17">
         <v>17</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="17">
         <v>2</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="20">
         <f t="shared" si="0"/>
         <v>2.0308000000000002</v>
       </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-    </row>
-    <row r="51" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
+      <c r="G50" s="16"/>
+      <c r="H50" s="20">
+        <f t="shared" si="1"/>
+        <v>2.0308000000000002</v>
+      </c>
+      <c r="I50" s="22"/>
+      <c r="J50" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.0308000000000002</v>
+      </c>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+    </row>
+    <row r="51" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="17">
         <v>18</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="17">
         <v>2</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="20">
         <f t="shared" si="0"/>
         <v>2.2517</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-    </row>
-    <row r="52" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
+      <c r="G51" s="16"/>
+      <c r="H51" s="20">
+        <f t="shared" si="1"/>
+        <v>2.2517</v>
+      </c>
+      <c r="I51" s="22"/>
+      <c r="J51" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.2517</v>
+      </c>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+    </row>
+    <row r="52" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="17">
         <v>19</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="17">
         <v>2</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="20">
         <f t="shared" si="0"/>
         <v>2.3624000000000001</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-    </row>
-    <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
+      <c r="G52" s="16"/>
+      <c r="H52" s="20">
+        <f t="shared" si="1"/>
+        <v>2.3624000000000001</v>
+      </c>
+      <c r="I52" s="22"/>
+      <c r="J52" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.3624000000000001</v>
+      </c>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+    </row>
+    <row r="53" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="17">
         <v>20</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="17">
         <v>2</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="20">
         <f t="shared" si="0"/>
         <v>2.1964999999999999</v>
       </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-    </row>
-    <row r="54" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
+      <c r="G53" s="16"/>
+      <c r="H53" s="20">
+        <f t="shared" si="1"/>
+        <v>2.1964999999999999</v>
+      </c>
+      <c r="I53" s="22"/>
+      <c r="J53" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.1964999999999999</v>
+      </c>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+    </row>
+    <row r="54" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="17">
         <v>21</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="17">
         <v>2</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="20">
         <f t="shared" si="0"/>
         <v>1.9264999999999999</v>
       </c>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-    </row>
-    <row r="55" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
+      <c r="G54" s="16"/>
+      <c r="H54" s="20">
+        <f t="shared" si="1"/>
+        <v>1.9264999999999999</v>
+      </c>
+      <c r="I54" s="22"/>
+      <c r="J54" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.9264999999999999</v>
+      </c>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+    </row>
+    <row r="55" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="17">
         <v>22</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="17">
         <v>2</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="20">
         <f t="shared" si="0"/>
         <v>2.2064999999999997</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="s">
+      <c r="H55" s="20">
+        <f t="shared" si="1"/>
+        <v>2.2064999999999997</v>
+      </c>
+      <c r="J55" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.2064999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="17">
         <v>23</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="17">
         <v>2</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="20">
         <f t="shared" si="0"/>
         <v>2.1292999999999997</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
+      <c r="H56" s="20">
+        <f t="shared" si="1"/>
+        <v>2.1292999999999997</v>
+      </c>
+      <c r="J56" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.1292999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57" s="17">
         <v>24</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="17">
         <v>2</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="20">
         <f t="shared" si="0"/>
         <v>2.4085999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
+      <c r="H57" s="20">
+        <f t="shared" si="1"/>
+        <v>2.4085999999999999</v>
+      </c>
+      <c r="J57" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.4085999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B58" s="17">
         <v>25</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="17">
         <v>2</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="20">
         <f t="shared" si="0"/>
         <v>1.9459999999999997</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="18" t="s">
+      <c r="H58" s="20">
+        <f t="shared" si="1"/>
+        <v>1.9459999999999997</v>
+      </c>
+      <c r="J58" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.9459999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B59" s="17">
         <v>26</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="17">
         <v>2</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="20">
         <f t="shared" si="0"/>
         <v>2.1188000000000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
+      <c r="H59" s="20">
+        <f t="shared" si="1"/>
+        <v>2.1188000000000002</v>
+      </c>
+      <c r="J59" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.1188000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="17">
         <v>27</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="17">
         <v>2</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="20">
         <f t="shared" si="0"/>
         <v>1.8934</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="s">
+      <c r="H60" s="20">
+        <f t="shared" si="1"/>
+        <v>1.8934</v>
+      </c>
+      <c r="J60" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.8934</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="17">
         <v>28</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="17">
         <v>2</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="20">
         <f t="shared" si="0"/>
         <v>2.4545000000000003</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
+      <c r="H61" s="20">
+        <f t="shared" si="1"/>
+        <v>2.4545000000000003</v>
+      </c>
+      <c r="J61" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.4545000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="18">
+      <c r="B62" s="17">
         <v>29</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C62" s="17">
         <v>2</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F62" s="20">
         <f t="shared" si="0"/>
         <v>1.7812999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="18" t="s">
+      <c r="H62" s="20">
+        <f t="shared" si="1"/>
+        <v>1.7812999999999999</v>
+      </c>
+      <c r="J62" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.7812999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="18">
+      <c r="B63" s="17">
         <v>30</v>
       </c>
-      <c r="C63" s="18">
+      <c r="C63" s="17">
         <v>2</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="20">
         <f t="shared" si="0"/>
         <v>2.0199999999999996</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="18" t="s">
+      <c r="H63" s="20">
+        <f t="shared" si="1"/>
+        <v>2.0199999999999996</v>
+      </c>
+      <c r="J63" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.0199999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="18">
+      <c r="B64" s="17">
         <v>31</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C64" s="17">
         <v>2</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F64" s="20">
         <f t="shared" si="0"/>
         <v>1.9168000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="18" t="s">
+      <c r="H64" s="20">
+        <f t="shared" si="1"/>
+        <v>1.9168000000000001</v>
+      </c>
+      <c r="J64" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.9168000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A65" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="17">
         <v>32</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="17">
         <v>2</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="20">
         <f t="shared" si="0"/>
         <v>1.4215</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="18" t="s">
+      <c r="H65" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4215</v>
+      </c>
+      <c r="J65" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.4215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A66" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="18">
+      <c r="B66" s="17">
         <v>1</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="17">
         <v>3</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="20">
         <f t="shared" si="0"/>
         <v>2.2138</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="18" t="s">
+      <c r="H66" s="20">
+        <f t="shared" si="1"/>
+        <v>2.2138</v>
+      </c>
+      <c r="J66" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.2138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A67" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B67" s="17">
         <v>2</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="17">
         <v>3</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F67" s="21">
-        <f t="shared" ref="F67:F97" si="1">E67-D67</f>
+      <c r="F67" s="20">
+        <f t="shared" ref="F67:F97" si="3">E67-D67</f>
         <v>1.7383999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="18" t="s">
+      <c r="H67" s="20">
+        <f t="shared" ref="H67:H97" si="4">F67-G67</f>
+        <v>1.7383999999999999</v>
+      </c>
+      <c r="J67" s="20">
+        <f t="shared" ref="J67:J97" si="5">I67-H67</f>
+        <v>-1.7383999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A68" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B68" s="17">
         <v>3</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C68" s="17">
         <v>3</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F68" s="21">
-        <f t="shared" si="1"/>
+      <c r="F68" s="20">
+        <f t="shared" si="3"/>
         <v>2.1650999999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="18" t="s">
+      <c r="H68" s="20">
+        <f t="shared" si="4"/>
+        <v>2.1650999999999998</v>
+      </c>
+      <c r="J68" s="20">
+        <f t="shared" si="5"/>
+        <v>-2.1650999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A69" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="17">
         <v>4</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C69" s="17">
         <v>3</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F69" s="21">
-        <f t="shared" si="1"/>
+      <c r="F69" s="20">
+        <f t="shared" si="3"/>
         <v>1.6613999999999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="18" t="s">
+      <c r="H69" s="20">
+        <f t="shared" si="4"/>
+        <v>1.6613999999999998</v>
+      </c>
+      <c r="J69" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.6613999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A70" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="17">
         <v>5</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="17">
         <v>3</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F70" s="21">
-        <f t="shared" si="1"/>
+      <c r="F70" s="20">
+        <f t="shared" si="3"/>
         <v>2.0070999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="18" t="s">
+      <c r="H70" s="20">
+        <f t="shared" si="4"/>
+        <v>2.0070999999999999</v>
+      </c>
+      <c r="J70" s="20">
+        <f t="shared" si="5"/>
+        <v>-2.0070999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A71" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="17">
         <v>6</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="17">
         <v>3</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F71" s="21">
-        <f t="shared" si="1"/>
+      <c r="F71" s="20">
+        <f t="shared" si="3"/>
         <v>2.4840999999999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="18" t="s">
+      <c r="H71" s="20">
+        <f t="shared" si="4"/>
+        <v>2.4840999999999998</v>
+      </c>
+      <c r="J71" s="20">
+        <f t="shared" si="5"/>
+        <v>-2.4840999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A72" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="18">
+      <c r="B72" s="17">
         <v>7</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C72" s="17">
         <v>3</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F72" s="21">
-        <f t="shared" si="1"/>
+      <c r="F72" s="20">
+        <f t="shared" si="3"/>
         <v>2.7742</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="18" t="s">
+      <c r="H72" s="20">
+        <f t="shared" si="4"/>
+        <v>2.7742</v>
+      </c>
+      <c r="J72" s="20">
+        <f t="shared" si="5"/>
+        <v>-2.7742</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A73" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B73" s="17">
         <v>8</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C73" s="17">
         <v>3</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F73" s="21">
-        <f t="shared" si="1"/>
+      <c r="F73" s="20">
+        <f t="shared" si="3"/>
         <v>2.2294999999999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
+      <c r="H73" s="20">
+        <f t="shared" si="4"/>
+        <v>2.2294999999999998</v>
+      </c>
+      <c r="J73" s="20">
+        <f t="shared" si="5"/>
+        <v>-2.2294999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A74" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="18">
+      <c r="B74" s="17">
         <v>9</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C74" s="17">
         <v>3</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F74" s="21">
-        <f t="shared" si="1"/>
+      <c r="F74" s="20">
+        <f t="shared" si="3"/>
         <v>1.8876000000000002</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="18" t="s">
+      <c r="H74" s="20">
+        <f t="shared" si="4"/>
+        <v>1.8876000000000002</v>
+      </c>
+      <c r="J74" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.8876000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A75" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="18">
+      <c r="B75" s="17">
         <v>10</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75" s="17">
         <v>3</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F75" s="21">
-        <f t="shared" si="1"/>
+      <c r="F75" s="20">
+        <f t="shared" si="3"/>
         <v>2.6745999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="18" t="s">
+      <c r="H75" s="20">
+        <f t="shared" si="4"/>
+        <v>2.6745999999999999</v>
+      </c>
+      <c r="J75" s="20">
+        <f t="shared" si="5"/>
+        <v>-2.6745999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A76" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="18">
+      <c r="B76" s="17">
         <v>11</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C76" s="17">
         <v>3</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F76" s="21">
-        <f t="shared" si="1"/>
+      <c r="F76" s="20">
+        <f t="shared" si="3"/>
         <v>1.7654999999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="18" t="s">
+      <c r="H76" s="20">
+        <f t="shared" si="4"/>
+        <v>1.7654999999999998</v>
+      </c>
+      <c r="J76" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.7654999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A77" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="18">
+      <c r="B77" s="17">
         <v>12</v>
       </c>
-      <c r="C77" s="18">
+      <c r="C77" s="17">
         <v>3</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F77" s="21">
-        <f t="shared" si="1"/>
+      <c r="F77" s="20">
+        <f t="shared" si="3"/>
         <v>2.6536999999999997</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="18" t="s">
+      <c r="H77" s="20">
+        <f t="shared" si="4"/>
+        <v>2.6536999999999997</v>
+      </c>
+      <c r="J77" s="20">
+        <f t="shared" si="5"/>
+        <v>-2.6536999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A78" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="17">
         <v>13</v>
       </c>
-      <c r="C78" s="18">
+      <c r="C78" s="17">
         <v>3</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F78" s="21">
-        <f t="shared" si="1"/>
+      <c r="F78" s="20">
+        <f t="shared" si="3"/>
         <v>2.2622999999999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="18" t="s">
+      <c r="H78" s="20">
+        <f t="shared" si="4"/>
+        <v>2.2622999999999998</v>
+      </c>
+      <c r="J78" s="20">
+        <f t="shared" si="5"/>
+        <v>-2.2622999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A79" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="18">
+      <c r="B79" s="17">
         <v>14</v>
       </c>
-      <c r="C79" s="18">
+      <c r="C79" s="17">
         <v>3</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="F79" s="21">
-        <f t="shared" si="1"/>
+      <c r="F79" s="20">
+        <f t="shared" si="3"/>
         <v>2.0528</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="18" t="s">
+      <c r="H79" s="20">
+        <f t="shared" si="4"/>
+        <v>2.0528</v>
+      </c>
+      <c r="J79" s="20">
+        <f t="shared" si="5"/>
+        <v>-2.0528</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A80" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="18">
+      <c r="B80" s="17">
         <v>15</v>
       </c>
-      <c r="C80" s="18">
+      <c r="C80" s="17">
         <v>3</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E80" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="F80" s="21">
-        <f t="shared" si="1"/>
+      <c r="F80" s="20">
+        <f t="shared" si="3"/>
         <v>1.8818000000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="18" t="s">
+      <c r="H80" s="20">
+        <f t="shared" si="4"/>
+        <v>1.8818000000000001</v>
+      </c>
+      <c r="J80" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.8818000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A81" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="18">
+      <c r="B81" s="17">
         <v>16</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C81" s="17">
         <v>3</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="E81" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F81" s="21">
-        <f t="shared" si="1"/>
+      <c r="F81" s="20">
+        <f t="shared" si="3"/>
         <v>1.6708000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="18" t="s">
+      <c r="H81" s="20">
+        <f t="shared" si="4"/>
+        <v>1.6708000000000001</v>
+      </c>
+      <c r="J81" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.6708000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A82" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="18">
+      <c r="B82" s="17">
         <v>17</v>
       </c>
-      <c r="C82" s="18">
+      <c r="C82" s="17">
         <v>3</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F82" s="21">
-        <f t="shared" si="1"/>
+      <c r="F82" s="20">
+        <f t="shared" si="3"/>
         <v>2.0573000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="18" t="s">
+      <c r="H82" s="20">
+        <f t="shared" si="4"/>
+        <v>2.0573000000000001</v>
+      </c>
+      <c r="J82" s="20">
+        <f t="shared" si="5"/>
+        <v>-2.0573000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A83" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="18">
+      <c r="B83" s="17">
         <v>18</v>
       </c>
-      <c r="C83" s="18">
+      <c r="C83" s="17">
         <v>3</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E83" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F83" s="21">
-        <f t="shared" si="1"/>
+      <c r="F83" s="20">
+        <f t="shared" si="3"/>
         <v>1.8468999999999998</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="18" t="s">
+      <c r="H83" s="20">
+        <f t="shared" si="4"/>
+        <v>1.8468999999999998</v>
+      </c>
+      <c r="J83" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.8468999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A84" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="18">
+      <c r="B84" s="17">
         <v>19</v>
       </c>
-      <c r="C84" s="18">
+      <c r="C84" s="17">
         <v>3</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F84" s="21">
-        <f t="shared" si="1"/>
+      <c r="F84" s="20">
+        <f t="shared" si="3"/>
         <v>2.2845</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="18" t="s">
+      <c r="H84" s="20">
+        <f t="shared" si="4"/>
+        <v>2.2845</v>
+      </c>
+      <c r="J84" s="20">
+        <f t="shared" si="5"/>
+        <v>-2.2845</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A85" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="18">
+      <c r="B85" s="17">
         <v>20</v>
       </c>
-      <c r="C85" s="18">
+      <c r="C85" s="17">
         <v>3</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F85" s="21">
-        <f t="shared" si="1"/>
+      <c r="F85" s="20">
+        <f t="shared" si="3"/>
         <v>1.8836999999999997</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="18" t="s">
+      <c r="H85" s="20">
+        <f t="shared" si="4"/>
+        <v>1.8836999999999997</v>
+      </c>
+      <c r="J85" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.8836999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A86" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="18">
+      <c r="B86" s="17">
         <v>21</v>
       </c>
-      <c r="C86" s="18">
+      <c r="C86" s="17">
         <v>3</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E86" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F86" s="21">
-        <f t="shared" si="1"/>
+      <c r="F86" s="20">
+        <f t="shared" si="3"/>
         <v>1.9964000000000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="18" t="s">
+      <c r="H86" s="20">
+        <f t="shared" si="4"/>
+        <v>1.9964000000000002</v>
+      </c>
+      <c r="J86" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.9964000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A87" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="18">
+      <c r="B87" s="17">
         <v>22</v>
       </c>
-      <c r="C87" s="18">
+      <c r="C87" s="17">
         <v>3</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="E87" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F87" s="21">
-        <f t="shared" si="1"/>
+      <c r="F87" s="20">
+        <f t="shared" si="3"/>
         <v>1.4735999999999998</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="18" t="s">
+      <c r="H87" s="20">
+        <f t="shared" si="4"/>
+        <v>1.4735999999999998</v>
+      </c>
+      <c r="J87" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.4735999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A88" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="18">
+      <c r="B88" s="17">
         <v>23</v>
       </c>
-      <c r="C88" s="18">
+      <c r="C88" s="17">
         <v>3</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E88" s="18" t="s">
+      <c r="E88" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F88" s="21">
-        <f t="shared" si="1"/>
+      <c r="F88" s="20">
+        <f t="shared" si="3"/>
         <v>1.6666999999999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="18" t="s">
+      <c r="H88" s="20">
+        <f t="shared" si="4"/>
+        <v>1.6666999999999998</v>
+      </c>
+      <c r="J88" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.6666999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A89" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="18">
+      <c r="B89" s="17">
         <v>24</v>
       </c>
-      <c r="C89" s="18">
+      <c r="C89" s="17">
         <v>3</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E89" s="18" t="s">
+      <c r="E89" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F89" s="21">
-        <f t="shared" si="1"/>
+      <c r="F89" s="20">
+        <f t="shared" si="3"/>
         <v>1.5307999999999997</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A90" s="18" t="s">
+      <c r="H89" s="20">
+        <f t="shared" si="4"/>
+        <v>1.5307999999999997</v>
+      </c>
+      <c r="J89" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.5307999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A90" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="18">
+      <c r="B90" s="17">
         <v>25</v>
       </c>
-      <c r="C90" s="18">
+      <c r="C90" s="17">
         <v>3</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F90" s="21">
-        <f t="shared" si="1"/>
+      <c r="F90" s="20">
+        <f t="shared" si="3"/>
         <v>2.1417000000000002</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="18" t="s">
+      <c r="H90" s="20">
+        <f t="shared" si="4"/>
+        <v>2.1417000000000002</v>
+      </c>
+      <c r="J90" s="20">
+        <f t="shared" si="5"/>
+        <v>-2.1417000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A91" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="18">
+      <c r="B91" s="17">
         <v>26</v>
       </c>
-      <c r="C91" s="18">
+      <c r="C91" s="17">
         <v>3</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E91" s="18" t="s">
+      <c r="E91" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F91" s="21">
-        <f t="shared" si="1"/>
+      <c r="F91" s="20">
+        <f t="shared" si="3"/>
         <v>2.2042999999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="18" t="s">
+      <c r="H91" s="20">
+        <f t="shared" si="4"/>
+        <v>2.2042999999999999</v>
+      </c>
+      <c r="J91" s="20">
+        <f t="shared" si="5"/>
+        <v>-2.2042999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A92" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="18">
+      <c r="B92" s="17">
         <v>27</v>
       </c>
-      <c r="C92" s="18">
+      <c r="C92" s="17">
         <v>3</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D92" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="E92" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F92" s="21">
-        <f t="shared" si="1"/>
+      <c r="F92" s="20">
+        <f t="shared" si="3"/>
         <v>1.4490999999999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="18" t="s">
+      <c r="H92" s="20">
+        <f t="shared" si="4"/>
+        <v>1.4490999999999998</v>
+      </c>
+      <c r="J92" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.4490999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A93" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="18">
+      <c r="B93" s="17">
         <v>28</v>
       </c>
-      <c r="C93" s="18">
+      <c r="C93" s="17">
         <v>3</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="D93" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F93" s="21">
-        <f t="shared" si="1"/>
+      <c r="F93" s="20">
+        <f t="shared" si="3"/>
         <v>2.2590000000000003</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="18" t="s">
+      <c r="H93" s="20">
+        <f t="shared" si="4"/>
+        <v>2.2590000000000003</v>
+      </c>
+      <c r="J93" s="20">
+        <f t="shared" si="5"/>
+        <v>-2.2590000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A94" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="18">
+      <c r="B94" s="17">
         <v>29</v>
       </c>
-      <c r="C94" s="18">
+      <c r="C94" s="17">
         <v>3</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="D94" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E94" s="18" t="s">
+      <c r="E94" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F94" s="21">
-        <f t="shared" si="1"/>
+      <c r="F94" s="20">
+        <f t="shared" si="3"/>
         <v>1.9991000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="18" t="s">
+      <c r="H94" s="20">
+        <f t="shared" si="4"/>
+        <v>1.9991000000000001</v>
+      </c>
+      <c r="J94" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.9991000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A95" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="18">
+      <c r="B95" s="17">
         <v>30</v>
       </c>
-      <c r="C95" s="18">
+      <c r="C95" s="17">
         <v>3</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="D95" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="E95" s="18" t="s">
+      <c r="E95" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F95" s="21">
-        <f t="shared" si="1"/>
+      <c r="F95" s="20">
+        <f t="shared" si="3"/>
         <v>2.0025000000000004</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="18" t="s">
+      <c r="H95" s="20">
+        <f t="shared" si="4"/>
+        <v>2.0025000000000004</v>
+      </c>
+      <c r="J95" s="20">
+        <f t="shared" si="5"/>
+        <v>-2.0025000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A96" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="18">
+      <c r="B96" s="17">
         <v>31</v>
       </c>
-      <c r="C96" s="18">
+      <c r="C96" s="17">
         <v>3</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="D96" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="E96" s="18" t="s">
+      <c r="E96" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F96" s="21">
-        <f t="shared" si="1"/>
+      <c r="F96" s="20">
+        <f t="shared" si="3"/>
         <v>2.0035999999999996</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="18" t="s">
+      <c r="H96" s="20">
+        <f t="shared" si="4"/>
+        <v>2.0035999999999996</v>
+      </c>
+      <c r="J96" s="20">
+        <f t="shared" si="5"/>
+        <v>-2.0035999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A97" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="18">
+      <c r="B97" s="17">
         <v>32</v>
       </c>
-      <c r="C97" s="18">
+      <c r="C97" s="17">
         <v>3</v>
       </c>
-      <c r="D97" s="18" t="s">
+      <c r="D97" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E97" s="18" t="s">
+      <c r="E97" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F97" s="21">
-        <f t="shared" si="1"/>
+      <c r="F97" s="20">
+        <f t="shared" si="3"/>
         <v>1.6473000000000002</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C98" s="18"/>
+      <c r="H97" s="20">
+        <f t="shared" si="4"/>
+        <v>1.6473000000000002</v>
+      </c>
+      <c r="J97" s="20">
+        <f t="shared" si="5"/>
+        <v>-1.6473000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="C98" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Larvae Data Sheet.xlsx
+++ b/Documents/Larvae Data Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elapa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B614ED3-B7E1-4DB1-82E9-EF40817840E3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0818B87D-2D7F-4167-8D68-A974974528B6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="217">
   <si>
     <t>COHORT</t>
   </si>
@@ -668,6 +668,18 @@
   </si>
   <si>
     <t>Tray 3 UZ12-0519</t>
+  </si>
+  <si>
+    <t>Wet Mass</t>
+  </si>
+  <si>
+    <t>Dry Mass</t>
+  </si>
+  <si>
+    <t>Lean Mass</t>
+  </si>
+  <si>
+    <t>Lipid Mass</t>
   </si>
 </sst>
 </file>
@@ -1551,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1569,9 +1581,13 @@
     <col min="8" max="8" width="24.68359375" style="23" customWidth="1"/>
     <col min="9" max="9" width="10.41796875" style="23" customWidth="1"/>
     <col min="10" max="10" width="21.68359375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="16.41796875" customWidth="1"/>
+    <col min="12" max="12" width="15.3671875" customWidth="1"/>
+    <col min="13" max="13" width="14.15625" customWidth="1"/>
+    <col min="14" max="14" width="16.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
@@ -1602,8 +1618,20 @@
       <c r="J1" s="19" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="K1" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
@@ -1636,7 +1664,7 @@
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:14" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1697,7 @@
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:14" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -1702,7 +1730,7 @@
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:14" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1735,7 +1763,7 @@
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:14" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
@@ -1768,7 +1796,7 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:14" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A7" s="17" t="s">
         <v>9</v>
       </c>
@@ -1801,7 +1829,7 @@
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
-    <row r="8" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:14" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
@@ -1834,7 +1862,7 @@
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:14" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A9" s="17" t="s">
         <v>9</v>
       </c>
@@ -1867,7 +1895,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
-    <row r="10" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:14" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
@@ -1900,7 +1928,7 @@
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
-    <row r="11" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:14" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A11" s="17" t="s">
         <v>9</v>
       </c>
@@ -1933,7 +1961,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
     </row>
-    <row r="12" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:14" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A12" s="17" t="s">
         <v>9</v>
       </c>
@@ -1966,7 +1994,7 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:14" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
@@ -1999,7 +2027,7 @@
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:14" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A14" s="17" t="s">
         <v>9</v>
       </c>
@@ -2032,7 +2060,7 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:14" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A15" s="17" t="s">
         <v>9</v>
       </c>
@@ -2065,7 +2093,7 @@
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="1:12" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:14" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A16" s="17" t="s">
         <v>9</v>
       </c>

--- a/Documents/Larvae Data Sheet.xlsx
+++ b/Documents/Larvae Data Sheet.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chembug\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chembug\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trays" sheetId="1" r:id="rId1"/>
     <sheet name="Diet Weights" sheetId="2" r:id="rId2"/>
-    <sheet name="Dry Diet regression" sheetId="3" r:id="rId3"/>
+    <sheet name="Diet Regression" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Trays!$A$1:$J$19</definedName>
@@ -667,15 +667,6 @@
     <t>Tray 3 UZ12-0519</t>
   </si>
   <si>
-    <t>Foil  #</t>
-  </si>
-  <si>
-    <t>wet diet mass</t>
-  </si>
-  <si>
-    <t>dry diet mass</t>
-  </si>
-  <si>
     <t>Cup + Diet Wt A</t>
   </si>
   <si>
@@ -749,6 +740,15 @@
   </si>
   <si>
     <t>3.7052</t>
+  </si>
+  <si>
+    <t>Wet Diet Mass</t>
+  </si>
+  <si>
+    <t>Dry Diet Mass</t>
+  </si>
+  <si>
+    <t>Foil-#</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1047,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1097,39 +1097,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1141,13 +1108,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1159,8 +1122,19 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1496,10 +1470,10 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1760,25 +1734,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+    <sheetView zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="20" customWidth="1"/>
     <col min="14" max="14" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
@@ -1790,63 +1764,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="A1" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="K2" s="30" t="s">
+      <c r="J2" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="M2" s="30" t="s">
-        <v>217</v>
+      <c r="M2" s="19" t="s">
+        <v>214</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>207</v>
@@ -1854,49 +1828,49 @@
       <c r="O2" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="S2" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="T2" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="U2" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="S2" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="T2" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="U2" s="41" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="21">
         <v>1</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="22">
         <f>E3-D3</f>
         <v>0.8575999999999997</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="25">
         <v>1.1519999999999999</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="25">
         <v>2.7612999999999999</v>
       </c>
       <c r="N3" s="18">
@@ -1912,29 +1886,29 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="21">
         <v>2</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="21">
         <v>1</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="22">
         <f t="shared" ref="F4:F67" si="0">E4-D4</f>
         <v>1.2922</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="25">
         <v>1.0812999999999999</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="25">
         <v>3.7157</v>
       </c>
       <c r="N4" s="16"/>
@@ -1944,22 +1918,22 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="21">
         <v>3</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="22">
         <f t="shared" si="0"/>
         <v>2.6353</v>
       </c>
@@ -1970,22 +1944,22 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="21">
         <v>4</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="22">
         <f t="shared" si="0"/>
         <v>1.2323000000000002</v>
       </c>
@@ -1996,22 +1970,22 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="21">
         <v>5</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="21">
         <v>1</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="22">
         <f t="shared" si="0"/>
         <v>1.4620000000000002</v>
       </c>
@@ -2022,22 +1996,22 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="21">
         <v>6</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="21">
         <v>1</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="22">
         <f t="shared" si="0"/>
         <v>1.0876000000000001</v>
       </c>
@@ -2048,22 +2022,22 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="21">
         <v>7</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="22">
         <f t="shared" si="0"/>
         <v>2.0972</v>
       </c>
@@ -2074,22 +2048,22 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="21">
         <v>8</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="21">
         <v>1</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="22">
         <f t="shared" si="0"/>
         <v>1.9435999999999998</v>
       </c>
@@ -2100,30 +2074,30 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="21">
         <v>9</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="21">
         <v>1</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="22">
         <f t="shared" si="0"/>
         <v>1.41</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="25">
         <v>1.2435</v>
       </c>
-      <c r="J11" s="42" t="s">
-        <v>227</v>
+      <c r="J11" s="25" t="s">
+        <v>224</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
@@ -2132,22 +2106,22 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="21">
         <v>10</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="21">
         <v>1</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="22">
         <f t="shared" si="0"/>
         <v>2.4809999999999999</v>
       </c>
@@ -2158,22 +2132,22 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="21">
         <v>11</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="21">
         <v>1</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="22">
         <f t="shared" si="0"/>
         <v>2.2110000000000003</v>
       </c>
@@ -2184,22 +2158,22 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="21">
         <v>12</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="21">
         <v>1</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="22">
         <f t="shared" si="0"/>
         <v>1.5587999999999997</v>
       </c>
@@ -2210,22 +2184,22 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="21">
         <v>13</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="21">
         <v>1</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="22">
         <f t="shared" si="0"/>
         <v>1.7085000000000001</v>
       </c>
@@ -2236,22 +2210,22 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="21">
         <v>14</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="21">
         <v>1</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="22">
         <f t="shared" si="0"/>
         <v>2.1286999999999998</v>
       </c>
@@ -2262,22 +2236,22 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="21">
         <v>15</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="21">
         <v>1</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="22">
         <f t="shared" si="0"/>
         <v>1.7517</v>
       </c>
@@ -2288,22 +2262,22 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="21">
         <v>16</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="21">
         <v>1</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="22">
         <f t="shared" si="0"/>
         <v>2.5247000000000002</v>
       </c>
@@ -2314,22 +2288,22 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="21">
         <v>17</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="21">
         <v>1</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="22">
         <f t="shared" si="0"/>
         <v>1.5149999999999999</v>
       </c>
@@ -2340,22 +2314,22 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="21">
         <v>18</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="21">
         <v>1</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="22">
         <f t="shared" si="0"/>
         <v>1.7078</v>
       </c>
@@ -2366,22 +2340,22 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="21">
         <v>19</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="21">
         <v>1</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="22">
         <f t="shared" si="0"/>
         <v>2.3321000000000001</v>
       </c>
@@ -2392,22 +2366,22 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="21">
         <v>20</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="21">
         <v>1</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="22">
         <f t="shared" si="0"/>
         <v>2.0987</v>
       </c>
@@ -2418,22 +2392,22 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="21">
         <v>21</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="21">
         <v>1</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="22">
         <f t="shared" si="0"/>
         <v>1.6801999999999999</v>
       </c>
@@ -2441,22 +2415,22 @@
       <c r="O23" s="16"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="21">
         <v>22</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="21">
         <v>1</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="22">
         <f t="shared" si="0"/>
         <v>2.0602999999999998</v>
       </c>
@@ -2464,22 +2438,22 @@
       <c r="O24" s="16"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="21">
         <v>23</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="21">
         <v>1</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="22">
         <f t="shared" si="0"/>
         <v>1.7304999999999999</v>
       </c>
@@ -2487,22 +2461,22 @@
       <c r="O25" s="16"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="21">
         <v>24</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="21">
         <v>1</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="22">
         <f t="shared" si="0"/>
         <v>1.4317</v>
       </c>
@@ -2510,22 +2484,22 @@
       <c r="O26" s="16"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="21">
         <v>25</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="21">
         <v>1</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="22">
         <f t="shared" si="0"/>
         <v>2.1421999999999999</v>
       </c>
@@ -2533,22 +2507,22 @@
       <c r="O27" s="16"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="21">
         <v>26</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="21">
         <v>1</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="22">
         <f t="shared" si="0"/>
         <v>2.5978000000000003</v>
       </c>
@@ -2556,22 +2530,22 @@
       <c r="O28" s="16"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="21">
         <v>27</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="21">
         <v>1</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="22">
         <f t="shared" si="0"/>
         <v>2.0524000000000004</v>
       </c>
@@ -2579,22 +2553,22 @@
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="21">
         <v>28</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="21">
         <v>1</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="22">
         <f t="shared" si="0"/>
         <v>2.1457999999999999</v>
       </c>
@@ -2602,22 +2576,22 @@
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="21">
         <v>29</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="21">
         <v>1</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="22">
         <f t="shared" si="0"/>
         <v>1.8349999999999997</v>
       </c>
@@ -2625,22 +2599,22 @@
       <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="21">
         <v>30</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="21">
         <v>1</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="33">
+      <c r="F32" s="22">
         <f t="shared" si="0"/>
         <v>1.373</v>
       </c>
@@ -2648,22 +2622,22 @@
       <c r="O32" s="16"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="21">
         <v>31</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="21">
         <v>1</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="33">
+      <c r="F33" s="22">
         <f t="shared" si="0"/>
         <v>1.4683999999999997</v>
       </c>
@@ -2671,22 +2645,22 @@
       <c r="O33" s="16"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="21">
         <v>32</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="21">
         <v>1</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="22">
         <f t="shared" si="0"/>
         <v>1.4023999999999999</v>
       </c>
@@ -2694,30 +2668,30 @@
       <c r="O34" s="16"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="21">
         <v>1</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="21">
         <v>2</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="33">
+      <c r="F35" s="22">
         <f t="shared" si="0"/>
         <v>1.4684000000000001</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="25">
         <v>1.1358999999999999</v>
       </c>
-      <c r="J35" s="42" t="s">
-        <v>232</v>
+      <c r="J35" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
@@ -2726,30 +2700,30 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="21">
         <v>2</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="21">
         <v>2</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="22">
         <f t="shared" si="0"/>
         <v>1.5680000000000001</v>
       </c>
-      <c r="I36" s="42">
+      <c r="I36" s="25">
         <v>1.2004999999999999</v>
       </c>
-      <c r="J36" s="42" t="s">
-        <v>233</v>
+      <c r="J36" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
@@ -2758,30 +2732,30 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="21">
         <v>3</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="21">
         <v>2</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="33">
+      <c r="F37" s="22">
         <f t="shared" si="0"/>
         <v>1.9543000000000001</v>
       </c>
-      <c r="I37" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="J37" s="42" t="s">
-        <v>234</v>
+      <c r="I37" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>231</v>
       </c>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
@@ -2790,30 +2764,30 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="32">
+      <c r="B38" s="21">
         <v>4</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="21">
         <v>2</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="33">
+      <c r="F38" s="22">
         <f t="shared" si="0"/>
         <v>1.7964</v>
       </c>
-      <c r="I38" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="J38" s="42" t="s">
-        <v>235</v>
+      <c r="I38" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>232</v>
       </c>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
@@ -2822,22 +2796,22 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="32">
+      <c r="B39" s="21">
         <v>5</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="21">
         <v>2</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="22">
         <f t="shared" si="0"/>
         <v>2.0362</v>
       </c>
@@ -2848,30 +2822,30 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="32">
+      <c r="B40" s="21">
         <v>6</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="21">
         <v>2</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="22">
         <f t="shared" si="0"/>
         <v>1.8745999999999998</v>
       </c>
-      <c r="I40" s="42" t="s">
+      <c r="I40" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="J40" s="42" t="s">
-        <v>236</v>
+      <c r="J40" s="25" t="s">
+        <v>233</v>
       </c>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
@@ -2880,30 +2854,30 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="21">
         <v>7</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="21">
         <v>2</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="33">
+      <c r="F41" s="22">
         <f t="shared" si="0"/>
         <v>2.2610999999999999</v>
       </c>
-      <c r="I41" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="J41" s="42" t="s">
-        <v>237</v>
+      <c r="I41" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>234</v>
       </c>
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
@@ -2912,30 +2886,30 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="32">
+      <c r="B42" s="21">
         <v>8</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C42" s="21">
         <v>2</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="22">
         <f t="shared" si="0"/>
         <v>2.3177000000000003</v>
       </c>
-      <c r="I42" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="J42" s="42" t="s">
-        <v>238</v>
+      <c r="I42" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>235</v>
       </c>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
@@ -2944,30 +2918,30 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="32">
+      <c r="B43" s="21">
         <v>9</v>
       </c>
-      <c r="C43" s="32">
+      <c r="C43" s="21">
         <v>2</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="33">
+      <c r="F43" s="22">
         <f t="shared" si="0"/>
         <v>1.3845000000000001</v>
       </c>
-      <c r="I43" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="J43" s="42" t="s">
-        <v>239</v>
+      <c r="I43" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="J43" s="25" t="s">
+        <v>236</v>
       </c>
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
@@ -2976,22 +2950,22 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="32">
+      <c r="B44" s="21">
         <v>10</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="21">
         <v>2</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="33">
+      <c r="F44" s="22">
         <f t="shared" si="0"/>
         <v>1.7791999999999999</v>
       </c>
@@ -3002,22 +2976,22 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="32">
+      <c r="B45" s="21">
         <v>11</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C45" s="21">
         <v>2</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F45" s="33">
+      <c r="F45" s="22">
         <f t="shared" si="0"/>
         <v>1.6708999999999998</v>
       </c>
@@ -3028,22 +3002,22 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="32">
+      <c r="B46" s="21">
         <v>12</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="21">
         <v>2</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="33">
+      <c r="F46" s="22">
         <f t="shared" si="0"/>
         <v>2.0454999999999997</v>
       </c>
@@ -3054,22 +3028,22 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="32">
+      <c r="B47" s="21">
         <v>13</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C47" s="21">
         <v>2</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="33">
+      <c r="F47" s="22">
         <f t="shared" si="0"/>
         <v>1.6638999999999999</v>
       </c>
@@ -3080,22 +3054,22 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="32">
+      <c r="B48" s="21">
         <v>14</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="21">
         <v>2</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F48" s="33">
+      <c r="F48" s="22">
         <f t="shared" si="0"/>
         <v>1.7162999999999997</v>
       </c>
@@ -3106,22 +3080,22 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="21">
         <v>15</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C49" s="21">
         <v>2</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F49" s="33">
+      <c r="F49" s="22">
         <f t="shared" si="0"/>
         <v>1.9057999999999999</v>
       </c>
@@ -3132,22 +3106,22 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="32">
+      <c r="B50" s="21">
         <v>16</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C50" s="21">
         <v>2</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="33">
+      <c r="F50" s="22">
         <f t="shared" si="0"/>
         <v>2.1303999999999998</v>
       </c>
@@ -3158,22 +3132,22 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="32">
+      <c r="B51" s="21">
         <v>17</v>
       </c>
-      <c r="C51" s="32">
+      <c r="C51" s="21">
         <v>2</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="E51" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="33">
+      <c r="F51" s="22">
         <f t="shared" si="0"/>
         <v>2.0308000000000002</v>
       </c>
@@ -3184,22 +3158,22 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="32">
+      <c r="B52" s="21">
         <v>18</v>
       </c>
-      <c r="C52" s="32">
+      <c r="C52" s="21">
         <v>2</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F52" s="33">
+      <c r="F52" s="22">
         <f t="shared" si="0"/>
         <v>2.2517</v>
       </c>
@@ -3210,22 +3184,22 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="32">
+      <c r="B53" s="21">
         <v>19</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="21">
         <v>2</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="E53" s="32" t="s">
+      <c r="E53" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="33">
+      <c r="F53" s="22">
         <f t="shared" si="0"/>
         <v>2.3624000000000001</v>
       </c>
@@ -3236,22 +3210,22 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="32">
+      <c r="B54" s="21">
         <v>20</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C54" s="21">
         <v>2</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="D54" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="33">
+      <c r="F54" s="22">
         <f t="shared" si="0"/>
         <v>2.1964999999999999</v>
       </c>
@@ -3259,22 +3233,22 @@
       <c r="O54" s="16"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="21">
         <v>21</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="21">
         <v>2</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E55" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F55" s="33">
+      <c r="F55" s="22">
         <f t="shared" si="0"/>
         <v>1.9264999999999999</v>
       </c>
@@ -3282,295 +3256,295 @@
       <c r="O55" s="16"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="32">
+      <c r="B56" s="21">
         <v>22</v>
       </c>
-      <c r="C56" s="32">
+      <c r="C56" s="21">
         <v>2</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F56" s="33">
+      <c r="F56" s="22">
         <f t="shared" si="0"/>
         <v>2.2064999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="32">
+      <c r="B57" s="21">
         <v>23</v>
       </c>
-      <c r="C57" s="32">
+      <c r="C57" s="21">
         <v>2</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E57" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F57" s="33">
+      <c r="F57" s="22">
         <f t="shared" si="0"/>
         <v>2.1292999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="32">
+      <c r="B58" s="21">
         <v>24</v>
       </c>
-      <c r="C58" s="32">
+      <c r="C58" s="21">
         <v>2</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D58" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="E58" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F58" s="33">
+      <c r="F58" s="22">
         <f t="shared" si="0"/>
         <v>2.4085999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="32">
+      <c r="B59" s="21">
         <v>25</v>
       </c>
-      <c r="C59" s="32">
+      <c r="C59" s="21">
         <v>2</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D59" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="E59" s="32" t="s">
+      <c r="E59" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F59" s="33">
+      <c r="F59" s="22">
         <f t="shared" si="0"/>
         <v>1.9459999999999997</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="32">
+      <c r="B60" s="21">
         <v>26</v>
       </c>
-      <c r="C60" s="32">
+      <c r="C60" s="21">
         <v>2</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D60" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="32" t="s">
+      <c r="E60" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F60" s="33">
+      <c r="F60" s="22">
         <f t="shared" si="0"/>
         <v>2.1188000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="21">
         <v>27</v>
       </c>
-      <c r="C61" s="32">
+      <c r="C61" s="21">
         <v>2</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="32" t="s">
+      <c r="E61" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="33">
+      <c r="F61" s="22">
         <f t="shared" si="0"/>
         <v>1.8934</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="32">
+      <c r="B62" s="21">
         <v>28</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C62" s="21">
         <v>2</v>
       </c>
-      <c r="D62" s="32" t="s">
+      <c r="D62" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E62" s="32" t="s">
+      <c r="E62" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F62" s="33">
+      <c r="F62" s="22">
         <f t="shared" si="0"/>
         <v>2.4545000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="32">
+      <c r="B63" s="21">
         <v>29</v>
       </c>
-      <c r="C63" s="32">
+      <c r="C63" s="21">
         <v>2</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E63" s="32" t="s">
+      <c r="E63" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F63" s="33">
+      <c r="F63" s="22">
         <f t="shared" si="0"/>
         <v>1.7812999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="32">
+      <c r="B64" s="21">
         <v>30</v>
       </c>
-      <c r="C64" s="32">
+      <c r="C64" s="21">
         <v>2</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="D64" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="E64" s="32" t="s">
+      <c r="E64" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F64" s="33">
+      <c r="F64" s="22">
         <f t="shared" si="0"/>
         <v>2.0199999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="32">
+      <c r="B65" s="21">
         <v>31</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C65" s="21">
         <v>2</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E65" s="32" t="s">
+      <c r="E65" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F65" s="33">
+      <c r="F65" s="22">
         <f t="shared" si="0"/>
         <v>1.9168000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="32">
+      <c r="B66" s="21">
         <v>32</v>
       </c>
-      <c r="C66" s="32">
+      <c r="C66" s="21">
         <v>2</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="E66" s="32" t="s">
+      <c r="E66" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F66" s="33">
+      <c r="F66" s="22">
         <f t="shared" si="0"/>
         <v>1.4215</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="32">
+      <c r="B67" s="21">
         <v>1</v>
       </c>
-      <c r="C67" s="32">
+      <c r="C67" s="21">
         <v>3</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E67" s="32" t="s">
+      <c r="E67" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F67" s="33">
+      <c r="F67" s="22">
         <f t="shared" si="0"/>
         <v>2.2138</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="32">
+      <c r="B68" s="21">
         <v>2</v>
       </c>
-      <c r="C68" s="32">
+      <c r="C68" s="21">
         <v>3</v>
       </c>
-      <c r="D68" s="32" t="s">
+      <c r="D68" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E68" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F68" s="33">
+      <c r="F68" s="22">
         <f t="shared" ref="F68:F98" si="1">E68-D68</f>
         <v>1.7383999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="32">
+      <c r="B69" s="21">
         <v>3</v>
       </c>
-      <c r="C69" s="32">
+      <c r="C69" s="21">
         <v>3</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D69" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="E69" s="32" t="s">
+      <c r="E69" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F69" s="33">
+      <c r="F69" s="22">
         <f t="shared" si="1"/>
         <v>2.1650999999999998</v>
       </c>
@@ -3579,22 +3553,22 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="32">
+      <c r="B70" s="21">
         <v>4</v>
       </c>
-      <c r="C70" s="32">
+      <c r="C70" s="21">
         <v>3</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="D70" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="E70" s="32" t="s">
+      <c r="E70" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F70" s="33">
+      <c r="F70" s="22">
         <f t="shared" si="1"/>
         <v>1.6613999999999998</v>
       </c>
@@ -3603,22 +3577,22 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="32">
+      <c r="B71" s="21">
         <v>5</v>
       </c>
-      <c r="C71" s="32">
+      <c r="C71" s="21">
         <v>3</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="E71" s="32" t="s">
+      <c r="E71" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F71" s="33">
+      <c r="F71" s="22">
         <f t="shared" si="1"/>
         <v>2.0070999999999999</v>
       </c>
@@ -3627,22 +3601,22 @@
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="32">
+      <c r="B72" s="21">
         <v>6</v>
       </c>
-      <c r="C72" s="32">
+      <c r="C72" s="21">
         <v>3</v>
       </c>
-      <c r="D72" s="32" t="s">
+      <c r="D72" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="E72" s="32" t="s">
+      <c r="E72" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="33">
+      <c r="F72" s="22">
         <f t="shared" si="1"/>
         <v>2.4840999999999998</v>
       </c>
@@ -3651,22 +3625,22 @@
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="32">
+      <c r="B73" s="21">
         <v>7</v>
       </c>
-      <c r="C73" s="32">
+      <c r="C73" s="21">
         <v>3</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D73" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F73" s="33">
+      <c r="F73" s="22">
         <f t="shared" si="1"/>
         <v>2.7742</v>
       </c>
@@ -3675,22 +3649,22 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="32">
+      <c r="B74" s="21">
         <v>8</v>
       </c>
-      <c r="C74" s="32">
+      <c r="C74" s="21">
         <v>3</v>
       </c>
-      <c r="D74" s="32" t="s">
+      <c r="D74" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="E74" s="32" t="s">
+      <c r="E74" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F74" s="33">
+      <c r="F74" s="22">
         <f t="shared" si="1"/>
         <v>2.2294999999999998</v>
       </c>
@@ -3699,22 +3673,22 @@
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="32">
+      <c r="B75" s="21">
         <v>9</v>
       </c>
-      <c r="C75" s="32">
+      <c r="C75" s="21">
         <v>3</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D75" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E75" s="32" t="s">
+      <c r="E75" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F75" s="33">
+      <c r="F75" s="22">
         <f t="shared" si="1"/>
         <v>1.8876000000000002</v>
       </c>
@@ -3723,22 +3697,22 @@
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="32">
+      <c r="B76" s="21">
         <v>10</v>
       </c>
-      <c r="C76" s="32">
+      <c r="C76" s="21">
         <v>3</v>
       </c>
-      <c r="D76" s="32" t="s">
+      <c r="D76" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="E76" s="32" t="s">
+      <c r="E76" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F76" s="33">
+      <c r="F76" s="22">
         <f t="shared" si="1"/>
         <v>2.6745999999999999</v>
       </c>
@@ -3747,22 +3721,22 @@
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="32">
+      <c r="B77" s="21">
         <v>11</v>
       </c>
-      <c r="C77" s="32">
+      <c r="C77" s="21">
         <v>3</v>
       </c>
-      <c r="D77" s="32" t="s">
+      <c r="D77" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="E77" s="32" t="s">
+      <c r="E77" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="F77" s="33">
+      <c r="F77" s="22">
         <f t="shared" si="1"/>
         <v>1.7654999999999998</v>
       </c>
@@ -3771,22 +3745,22 @@
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="32">
+      <c r="B78" s="21">
         <v>12</v>
       </c>
-      <c r="C78" s="32">
+      <c r="C78" s="21">
         <v>3</v>
       </c>
-      <c r="D78" s="32" t="s">
+      <c r="D78" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="E78" s="32" t="s">
+      <c r="E78" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F78" s="33">
+      <c r="F78" s="22">
         <f t="shared" si="1"/>
         <v>2.6536999999999997</v>
       </c>
@@ -3795,421 +3769,421 @@
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="32">
+      <c r="B79" s="21">
         <v>13</v>
       </c>
-      <c r="C79" s="32">
+      <c r="C79" s="21">
         <v>3</v>
       </c>
-      <c r="D79" s="32" t="s">
+      <c r="D79" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="E79" s="32" t="s">
+      <c r="E79" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="F79" s="33">
+      <c r="F79" s="22">
         <f t="shared" si="1"/>
         <v>2.2622999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="32">
+      <c r="B80" s="21">
         <v>14</v>
       </c>
-      <c r="C80" s="32">
+      <c r="C80" s="21">
         <v>3</v>
       </c>
-      <c r="D80" s="32" t="s">
+      <c r="D80" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="E80" s="32" t="s">
+      <c r="E80" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F80" s="33">
+      <c r="F80" s="22">
         <f t="shared" si="1"/>
         <v>2.0528</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="32" t="s">
+      <c r="A81" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="32">
+      <c r="B81" s="21">
         <v>15</v>
       </c>
-      <c r="C81" s="32">
+      <c r="C81" s="21">
         <v>3</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="D81" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E81" s="32" t="s">
+      <c r="E81" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F81" s="33">
+      <c r="F81" s="22">
         <f t="shared" si="1"/>
         <v>1.8818000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="32" t="s">
+      <c r="A82" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="32">
+      <c r="B82" s="21">
         <v>16</v>
       </c>
-      <c r="C82" s="32">
+      <c r="C82" s="21">
         <v>3</v>
       </c>
-      <c r="D82" s="32" t="s">
+      <c r="D82" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="E82" s="32" t="s">
+      <c r="E82" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F82" s="33">
+      <c r="F82" s="22">
         <f t="shared" si="1"/>
         <v>1.6708000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="32" t="s">
+      <c r="A83" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="32">
+      <c r="B83" s="21">
         <v>17</v>
       </c>
-      <c r="C83" s="32">
+      <c r="C83" s="21">
         <v>3</v>
       </c>
-      <c r="D83" s="32" t="s">
+      <c r="D83" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="E83" s="32" t="s">
+      <c r="E83" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F83" s="33">
+      <c r="F83" s="22">
         <f t="shared" si="1"/>
         <v>2.0573000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="32">
+      <c r="B84" s="21">
         <v>18</v>
       </c>
-      <c r="C84" s="32">
+      <c r="C84" s="21">
         <v>3</v>
       </c>
-      <c r="D84" s="32" t="s">
+      <c r="D84" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E84" s="32" t="s">
+      <c r="E84" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F84" s="33">
+      <c r="F84" s="22">
         <f t="shared" si="1"/>
         <v>1.8468999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="32">
+      <c r="B85" s="21">
         <v>19</v>
       </c>
-      <c r="C85" s="32">
+      <c r="C85" s="21">
         <v>3</v>
       </c>
-      <c r="D85" s="32" t="s">
+      <c r="D85" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="E85" s="32" t="s">
+      <c r="E85" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F85" s="33">
+      <c r="F85" s="22">
         <f t="shared" si="1"/>
         <v>2.2845</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="32">
+      <c r="B86" s="21">
         <v>20</v>
       </c>
-      <c r="C86" s="32">
+      <c r="C86" s="21">
         <v>3</v>
       </c>
-      <c r="D86" s="32" t="s">
+      <c r="D86" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="E86" s="32" t="s">
+      <c r="E86" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F86" s="33">
+      <c r="F86" s="22">
         <f t="shared" si="1"/>
         <v>1.8836999999999997</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="32" t="s">
+      <c r="A87" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="32">
+      <c r="B87" s="21">
         <v>21</v>
       </c>
-      <c r="C87" s="32">
+      <c r="C87" s="21">
         <v>3</v>
       </c>
-      <c r="D87" s="32" t="s">
+      <c r="D87" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="E87" s="32" t="s">
+      <c r="E87" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F87" s="33">
+      <c r="F87" s="22">
         <f t="shared" si="1"/>
         <v>1.9964000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="32" t="s">
+      <c r="A88" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="32">
+      <c r="B88" s="21">
         <v>22</v>
       </c>
-      <c r="C88" s="32">
+      <c r="C88" s="21">
         <v>3</v>
       </c>
-      <c r="D88" s="32" t="s">
+      <c r="D88" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E88" s="32" t="s">
+      <c r="E88" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F88" s="33">
+      <c r="F88" s="22">
         <f t="shared" si="1"/>
         <v>1.4735999999999998</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="32" t="s">
+      <c r="A89" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="32">
+      <c r="B89" s="21">
         <v>23</v>
       </c>
-      <c r="C89" s="32">
+      <c r="C89" s="21">
         <v>3</v>
       </c>
-      <c r="D89" s="32" t="s">
+      <c r="D89" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E89" s="32" t="s">
+      <c r="E89" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F89" s="33">
+      <c r="F89" s="22">
         <f t="shared" si="1"/>
         <v>1.6666999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="32" t="s">
+      <c r="A90" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="32">
+      <c r="B90" s="21">
         <v>24</v>
       </c>
-      <c r="C90" s="32">
+      <c r="C90" s="21">
         <v>3</v>
       </c>
-      <c r="D90" s="32" t="s">
+      <c r="D90" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E90" s="32" t="s">
+      <c r="E90" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F90" s="33">
+      <c r="F90" s="22">
         <f t="shared" si="1"/>
         <v>1.5307999999999997</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="32">
+      <c r="B91" s="21">
         <v>25</v>
       </c>
-      <c r="C91" s="32">
+      <c r="C91" s="21">
         <v>3</v>
       </c>
-      <c r="D91" s="32" t="s">
+      <c r="D91" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="E91" s="32" t="s">
+      <c r="E91" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F91" s="33">
+      <c r="F91" s="22">
         <f t="shared" si="1"/>
         <v>2.1417000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="32" t="s">
+      <c r="A92" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="32">
+      <c r="B92" s="21">
         <v>26</v>
       </c>
-      <c r="C92" s="32">
+      <c r="C92" s="21">
         <v>3</v>
       </c>
-      <c r="D92" s="32" t="s">
+      <c r="D92" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="E92" s="32" t="s">
+      <c r="E92" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F92" s="33">
+      <c r="F92" s="22">
         <f t="shared" si="1"/>
         <v>2.2042999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="32" t="s">
+      <c r="A93" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="32">
+      <c r="B93" s="21">
         <v>27</v>
       </c>
-      <c r="C93" s="32">
+      <c r="C93" s="21">
         <v>3</v>
       </c>
-      <c r="D93" s="32" t="s">
+      <c r="D93" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="E93" s="32" t="s">
+      <c r="E93" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F93" s="33">
+      <c r="F93" s="22">
         <f t="shared" si="1"/>
         <v>1.4490999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="32" t="s">
+      <c r="A94" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="32">
+      <c r="B94" s="21">
         <v>28</v>
       </c>
-      <c r="C94" s="32">
+      <c r="C94" s="21">
         <v>3</v>
       </c>
-      <c r="D94" s="32" t="s">
+      <c r="D94" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="E94" s="32" t="s">
+      <c r="E94" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F94" s="33">
+      <c r="F94" s="22">
         <f t="shared" si="1"/>
         <v>2.2590000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="32" t="s">
+      <c r="A95" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="32">
+      <c r="B95" s="21">
         <v>29</v>
       </c>
-      <c r="C95" s="32">
+      <c r="C95" s="21">
         <v>3</v>
       </c>
-      <c r="D95" s="32" t="s">
+      <c r="D95" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="E95" s="32" t="s">
+      <c r="E95" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F95" s="33">
+      <c r="F95" s="22">
         <f t="shared" si="1"/>
         <v>1.9991000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="32">
+      <c r="B96" s="21">
         <v>30</v>
       </c>
-      <c r="C96" s="32">
+      <c r="C96" s="21">
         <v>3</v>
       </c>
-      <c r="D96" s="32" t="s">
+      <c r="D96" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="E96" s="32" t="s">
+      <c r="E96" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F96" s="33">
+      <c r="F96" s="22">
         <f t="shared" si="1"/>
         <v>2.0025000000000004</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="32" t="s">
+      <c r="A97" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="32">
+      <c r="B97" s="21">
         <v>31</v>
       </c>
-      <c r="C97" s="32">
+      <c r="C97" s="21">
         <v>3</v>
       </c>
-      <c r="D97" s="32" t="s">
+      <c r="D97" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="E97" s="32" t="s">
+      <c r="E97" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F97" s="33">
+      <c r="F97" s="22">
         <f t="shared" si="1"/>
         <v>2.0035999999999996</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="32">
+      <c r="B98" s="21">
         <v>32</v>
       </c>
-      <c r="C98" s="32">
+      <c r="C98" s="21">
         <v>3</v>
       </c>
-      <c r="D98" s="32" t="s">
+      <c r="D98" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E98" s="32" t="s">
+      <c r="E98" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F98" s="33">
+      <c r="F98" s="22">
         <f t="shared" si="1"/>
         <v>1.6473000000000002</v>
       </c>
@@ -4226,205 +4200,433 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="19.5703125" style="22"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-    </row>
-    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="B2">
+        <v>7.4800000000000005E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-    </row>
-    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="B3">
+        <v>0.77249999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-    </row>
-    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="B4">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
         <v>4</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-    </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="B5">
+        <v>0.8911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
         <v>5</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-    </row>
-    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="B6">
+        <v>0.85240000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-    </row>
-    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="B7">
+        <v>1.488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
         <v>7</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-    </row>
-    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="B8">
+        <v>1.4714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="34">
         <v>8</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-    </row>
-    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="B9">
+        <v>1.6294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
         <v>9</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-    </row>
-    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="B10">
+        <v>1.9388000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
         <v>10</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-    </row>
-    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="B11">
+        <v>1.7687999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
         <v>11</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-    </row>
-    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="B12">
+        <v>2.1930000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
         <v>12</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-    </row>
-    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="B13">
+        <v>2.2176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
         <v>13</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-    </row>
-    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="B14">
+        <v>2.238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
         <v>14</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-    </row>
-    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="B15">
+        <v>2.3296000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
         <v>15</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-    </row>
-    <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="B16">
+        <v>2.1240000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
         <v>16</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-    </row>
-    <row r="18" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="B17">
+        <v>3.8115999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
         <v>17</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-    </row>
-    <row r="19" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="B18">
+        <v>4.3986999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
         <v>18</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-    </row>
-    <row r="20" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="B19">
+        <v>3.8100999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
         <v>19</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-    </row>
-    <row r="21" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="B20">
+        <v>3.7128000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
         <v>20</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-    </row>
-    <row r="22" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+      <c r="B21">
+        <v>4.2674000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
         <v>21</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-    </row>
-    <row r="23" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+      <c r="B22">
+        <v>5.1261000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
         <v>22</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-    </row>
-    <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
+      <c r="B23">
+        <v>5.2545000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
         <v>23</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-    </row>
-    <row r="25" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="B24">
+        <v>5.5106999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
         <v>24</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-    </row>
-    <row r="26" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26">
+      <c r="B25">
+        <v>4.7192999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
         <v>25</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26">
+        <v>4.4844999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.84079999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.68169999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.59809999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.9405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.71950000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1.258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1.5222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1.2950999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1.4666999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="34">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1.2918000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="34">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2.0177999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="34">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2.4186000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="34">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2.0964</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="34">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2.5855999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="34">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2.4026000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="34">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>3.6825000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>3.1570999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="34">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>4.1505999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="34">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>3.4321000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="34">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>4.6523000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="34">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>4.9757999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="34">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>4.8605</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="34">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5.6039000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="34">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>6.0462999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="34">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5.7276999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Larvae Data Sheet.xlsx
+++ b/Documents/Larvae Data Sheet.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="288">
   <si>
     <t>COHORT</t>
   </si>
@@ -815,6 +815,84 @@
   </si>
   <si>
     <t>4.1562</t>
+  </si>
+  <si>
+    <t>0611-0118</t>
+  </si>
+  <si>
+    <t>1.2009</t>
+  </si>
+  <si>
+    <t>4.3770</t>
+  </si>
+  <si>
+    <t>0611-0119</t>
+  </si>
+  <si>
+    <t>0611-0120</t>
+  </si>
+  <si>
+    <t>1.2033</t>
+  </si>
+  <si>
+    <t>1.1936</t>
+  </si>
+  <si>
+    <t>4.0384</t>
+  </si>
+  <si>
+    <t>3.9860</t>
+  </si>
+  <si>
+    <t>4.4310</t>
+  </si>
+  <si>
+    <t>0611-0221</t>
+  </si>
+  <si>
+    <t>0611-0222</t>
+  </si>
+  <si>
+    <t>1.2570</t>
+  </si>
+  <si>
+    <t>1.2137</t>
+  </si>
+  <si>
+    <t>3.4403</t>
+  </si>
+  <si>
+    <t>4.2384</t>
+  </si>
+  <si>
+    <t>0609-0303</t>
+  </si>
+  <si>
+    <t>0609-0304</t>
+  </si>
+  <si>
+    <t>1.0981</t>
+  </si>
+  <si>
+    <t>1.1720</t>
+  </si>
+  <si>
+    <t>3.6237</t>
+  </si>
+  <si>
+    <t>3.6973</t>
+  </si>
+  <si>
+    <t>3.7737</t>
+  </si>
+  <si>
+    <t>3.7684</t>
+  </si>
+  <si>
+    <t>4.3427</t>
+  </si>
+  <si>
+    <t>3.5270</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1227,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1198,9 +1276,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1211,18 +1286,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1280,6 +1343,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1617,10 +1701,10 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="18"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1881,2150 +1965,2237 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="24.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="46.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="50.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="44.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="13.140625" style="35"/>
+    <col min="1" max="1" width="21.28515625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="46.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="50.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="44.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="13.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="37"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="32"/>
     </row>
     <row r="2" spans="1:22" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="S2" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="T2" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="U2" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="V2" s="29" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <f>D3-C3</f>
         <v>0.8575999999999997</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="34">
         <v>43262</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="20">
         <v>1.1519999999999999</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <v>2.7612999999999999</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="20">
         <f>J3-I3</f>
         <v>1.6093</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="U3" s="35">
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="U3" s="46">
         <v>3.3784000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <f t="shared" ref="E4:E45" si="0">D4-C4</f>
         <v>1.2922</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="34">
         <v>43262</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="20">
         <v>1.0812999999999999</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="20">
         <v>3.7157</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="20">
         <f t="shared" ref="K4:K45" si="1">J4-I4</f>
         <v>2.6344000000000003</v>
       </c>
-      <c r="U4" s="35">
+      <c r="U4" s="46">
         <v>4.3532999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <f t="shared" si="0"/>
         <v>2.6353</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="34">
         <v>43264</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="20">
         <f t="shared" si="1"/>
         <v>4.0430999999999999</v>
       </c>
-      <c r="T5" s="35">
+      <c r="T5" s="30">
         <v>3.7993000000000001</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5" s="46">
         <v>5.2929000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:22" s="31" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="27">
         <f t="shared" si="0"/>
         <v>1.2323000000000002</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33">
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="T6" s="36">
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="T6" s="31">
         <v>2.4205000000000001</v>
       </c>
+      <c r="U6" s="47"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <f t="shared" si="0"/>
         <v>1.4620000000000002</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="34">
         <v>43263</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="20">
         <f t="shared" si="1"/>
         <v>2.7051999999999996</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7" s="30">
         <v>2.6286999999999998</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="46">
         <v>4.0137</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <f t="shared" si="0"/>
         <v>1.0876000000000001</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="34">
         <v>43263</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <f t="shared" si="1"/>
         <v>2.2313000000000001</v>
       </c>
-      <c r="T8" s="35">
+      <c r="T8" s="30">
         <v>2.3235000000000001</v>
       </c>
-      <c r="U8" s="35">
+      <c r="U8" s="46">
         <v>3.5350000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <f t="shared" si="0"/>
         <v>2.0972</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="34">
         <v>43263</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <f t="shared" si="1"/>
         <v>2.0378999999999996</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="30">
         <v>3.1663000000000001</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9" s="46">
         <v>3.3355000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <f t="shared" si="0"/>
         <v>1.9435999999999998</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="34">
         <v>43264</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <f t="shared" si="1"/>
         <v>2.2264999999999997</v>
       </c>
-      <c r="T10" s="35">
+      <c r="T10" s="30">
         <v>3.1093000000000002</v>
       </c>
-      <c r="U10" s="35">
+      <c r="U10" s="46">
         <v>3.5640000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <f t="shared" si="0"/>
         <v>1.41</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="34">
         <v>43262</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="20">
         <v>1.2435</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <f t="shared" si="1"/>
         <v>3.6124999999999998</v>
       </c>
-      <c r="U11" s="35">
+      <c r="U11" s="46">
         <v>5.5027999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <f t="shared" si="0"/>
         <v>2.4809999999999999</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="34">
         <v>43264</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <f t="shared" si="1"/>
         <v>1.4556</v>
       </c>
-      <c r="T12" s="35">
+      <c r="T12" s="30">
         <v>3.6543000000000001</v>
       </c>
-      <c r="U12" s="35">
+      <c r="U12" s="46">
         <v>2.7387999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <f t="shared" si="0"/>
         <v>2.2110000000000003</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="34">
         <v>43264</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="20">
         <f t="shared" si="1"/>
         <v>1.6381999999999999</v>
       </c>
-      <c r="T13" s="35">
+      <c r="T13" s="30">
         <v>3.4089999999999998</v>
       </c>
-      <c r="U13" s="35">
+      <c r="U13" s="46">
         <v>2.9108000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <f t="shared" si="0"/>
         <v>1.5587999999999997</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="34">
         <v>43264</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="20">
         <f t="shared" si="1"/>
         <v>1.6444000000000001</v>
       </c>
-      <c r="T14" s="35">
+      <c r="T14" s="30">
         <v>2.6753</v>
       </c>
-      <c r="U14" s="35">
+      <c r="U14" s="46">
         <v>2.9457</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <f t="shared" si="0"/>
         <v>1.7085000000000001</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="34">
         <v>43264</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="20">
         <f t="shared" si="1"/>
         <v>2.4337999999999997</v>
       </c>
-      <c r="T15" s="35">
+      <c r="T15" s="30">
         <v>2.9144999999999999</v>
       </c>
-      <c r="U15" s="35">
+      <c r="U15" s="46">
         <v>3.7052999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <f t="shared" si="0"/>
         <v>2.1286999999999998</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="34">
         <v>43264</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="20">
         <f t="shared" si="1"/>
         <v>2.4788999999999999</v>
       </c>
-      <c r="T16" s="35">
+      <c r="T16" s="30">
         <v>3.2848999999999999</v>
       </c>
-      <c r="U16" s="35">
+      <c r="U16" s="46">
         <v>3.7778999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <f t="shared" si="0"/>
         <v>1.7517</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="34">
         <v>43264</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="20">
         <f t="shared" si="1"/>
         <v>2.6552999999999995</v>
       </c>
-      <c r="T17" s="35">
+      <c r="T17" s="30">
         <v>3.1101999999999999</v>
       </c>
-      <c r="U17" s="35">
+      <c r="U17" s="46">
         <v>3.8748999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <f t="shared" si="0"/>
         <v>2.5247000000000002</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="34">
         <v>43264</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="20">
         <f t="shared" si="1"/>
         <v>2.9268999999999998</v>
       </c>
-      <c r="T18" s="35">
+      <c r="T18" s="30">
         <v>3.6480000000000001</v>
       </c>
-      <c r="U18" s="35">
+      <c r="U18" s="46">
         <v>4.1311</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <f t="shared" si="0"/>
         <v>1.5149999999999999</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="34">
         <v>43264</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="20">
         <f t="shared" si="1"/>
         <v>2.8258000000000001</v>
       </c>
-      <c r="T19" s="35">
+      <c r="T19" s="30">
         <v>2.6452</v>
       </c>
-      <c r="U19" s="35">
+      <c r="U19" s="46">
         <v>4.0347</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="20">
-        <v>18</v>
-      </c>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <f t="shared" si="0"/>
         <v>1.7078</v>
       </c>
-      <c r="K20" s="21">
+      <c r="H20" s="34">
+        <v>43265</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="K20" s="20">
+        <f t="shared" si="1"/>
+        <v>3.1760999999999999</v>
+      </c>
+      <c r="T20" s="30">
+        <v>3.3468</v>
+      </c>
+      <c r="U20" s="46" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A21" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="0"/>
+        <v>2.3321000000000001</v>
+      </c>
+      <c r="H21" s="34">
+        <v>43265</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="K21" s="20">
+        <f t="shared" si="1"/>
+        <v>2.8351000000000002</v>
+      </c>
+      <c r="T21" s="30">
+        <v>3.8975</v>
+      </c>
+      <c r="U21" s="46">
+        <v>4.1683000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A22" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="21">
+        <f t="shared" si="0"/>
+        <v>2.0987</v>
+      </c>
+      <c r="H22" s="34">
+        <v>43265</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="K22" s="20">
+        <f t="shared" si="1"/>
+        <v>2.7924000000000002</v>
+      </c>
+      <c r="T22" s="30">
+        <v>3.37391</v>
+      </c>
+      <c r="U22" s="46">
+        <v>4.0740999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" si="0"/>
+        <v>1.4684000000000001</v>
+      </c>
+      <c r="H23" s="34">
+        <v>43262</v>
+      </c>
+      <c r="I23" s="20">
+        <v>1.1358999999999999</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="20">
+        <f t="shared" si="1"/>
+        <v>3.0654999999999997</v>
+      </c>
+      <c r="U23" s="46">
+        <v>4.8596000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" si="0"/>
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="H24" s="34">
+        <v>43262</v>
+      </c>
+      <c r="I24" s="20">
+        <v>1.2004999999999999</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="20">
+        <f t="shared" si="1"/>
+        <v>2.3367</v>
+      </c>
+      <c r="U24" s="46">
+        <v>4.1954000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="21">
+        <f t="shared" si="0"/>
+        <v>1.9543000000000001</v>
+      </c>
+      <c r="H25" s="34">
+        <v>43262</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="20">
+        <f t="shared" si="1"/>
+        <v>3.3645999999999998</v>
+      </c>
+      <c r="U25" s="46">
+        <v>5.1554000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" si="0"/>
+        <v>1.7964</v>
+      </c>
+      <c r="H26" s="34">
+        <v>43262</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="20">
+        <f t="shared" si="1"/>
+        <v>2.5335000000000001</v>
+      </c>
+      <c r="U26" s="46">
+        <v>4.3296999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="26">
+        <v>5</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" si="0"/>
+        <v>2.0362</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T20" s="35">
-        <v>3.3468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="20">
-        <v>19</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="T27" s="31">
+        <v>3.2254</v>
+      </c>
+      <c r="U27" s="47"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="21">
         <f t="shared" si="0"/>
-        <v>2.3321000000000001</v>
-      </c>
-      <c r="K21" s="21">
+        <v>1.8745999999999998</v>
+      </c>
+      <c r="H28" s="34">
+        <v>43262</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K28" s="20">
+        <f t="shared" si="1"/>
+        <v>2.5500999999999996</v>
+      </c>
+      <c r="U28" s="46">
+        <v>4.3174000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="26">
+        <v>7</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="0"/>
+        <v>2.2610999999999999</v>
+      </c>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="28">
+        <f t="shared" si="1"/>
+        <v>3.0541999999999998</v>
+      </c>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="T29" s="31">
+        <v>3.4518</v>
+      </c>
+      <c r="U29" s="47"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="0"/>
+        <v>2.3177000000000003</v>
+      </c>
+      <c r="H30" s="34">
+        <v>43264</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" s="20">
+        <f t="shared" si="1"/>
+        <v>2.3706</v>
+      </c>
+      <c r="T30" s="30">
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="U30" s="46">
+        <v>3.6543999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="0"/>
+        <v>1.3845000000000001</v>
+      </c>
+      <c r="H31" s="34">
+        <v>43264</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" s="20">
+        <f t="shared" si="1"/>
+        <v>2.5208999999999997</v>
+      </c>
+      <c r="T31" s="30">
+        <v>2.968</v>
+      </c>
+      <c r="U31" s="46">
+        <v>3.7993999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="0"/>
+        <v>1.7791999999999999</v>
+      </c>
+      <c r="H32" s="34">
+        <v>43262</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K32" s="20">
+        <f t="shared" si="1"/>
+        <v>3.0541999999999998</v>
+      </c>
+      <c r="U32" s="46">
+        <v>4.8780000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A33" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" si="0"/>
+        <v>1.6708999999999998</v>
+      </c>
+      <c r="H33" s="34">
+        <v>43262</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K33" s="20">
+        <f t="shared" si="1"/>
+        <v>2.6768000000000001</v>
+      </c>
+      <c r="U33" s="46">
+        <v>4.4805000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" si="0"/>
+        <v>2.0454999999999997</v>
+      </c>
+      <c r="H34" s="34">
+        <v>43262</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K34" s="20">
+        <f t="shared" si="1"/>
+        <v>2.4994000000000001</v>
+      </c>
+      <c r="U34" s="46">
+        <v>4.3773999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A35" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="21">
+        <f t="shared" si="0"/>
+        <v>1.6638999999999999</v>
+      </c>
+      <c r="H35" s="34">
+        <v>43264</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" s="20">
+        <f t="shared" si="1"/>
+        <v>2.7488999999999999</v>
+      </c>
+      <c r="T35" s="30">
+        <v>2.9033000000000002</v>
+      </c>
+      <c r="U35" s="46">
+        <v>4.0129000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A36" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="21">
+        <f t="shared" si="0"/>
+        <v>1.7162999999999997</v>
+      </c>
+      <c r="H36" s="34">
+        <v>43264</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="K36" s="20">
+        <f t="shared" si="1"/>
+        <v>2.4617</v>
+      </c>
+      <c r="T36" s="30">
+        <v>2.8633999999999999</v>
+      </c>
+      <c r="U36" s="46">
+        <v>3.7235999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="21">
+        <f t="shared" si="0"/>
+        <v>1.9057999999999999</v>
+      </c>
+      <c r="H37" s="34">
+        <v>43264</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="20">
+        <f t="shared" si="1"/>
+        <v>2.9979</v>
+      </c>
+      <c r="T37" s="30">
+        <v>3.0173000000000001</v>
+      </c>
+      <c r="U37" s="46">
+        <v>4.2442000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A38" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="21">
+        <f t="shared" si="0"/>
+        <v>2.1303999999999998</v>
+      </c>
+      <c r="H38" s="34">
+        <v>43264</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K38" s="20">
+        <f t="shared" si="1"/>
+        <v>1.6375000000000002</v>
+      </c>
+      <c r="T38" s="30">
+        <v>3.2614999999999998</v>
+      </c>
+      <c r="U38" s="46">
+        <v>2.9514999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A39" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="21">
+        <f t="shared" si="0"/>
+        <v>2.0308000000000002</v>
+      </c>
+      <c r="H39" s="34">
+        <v>43264</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="K39" s="20">
+        <f t="shared" si="1"/>
+        <v>2.2900999999999998</v>
+      </c>
+      <c r="T39" s="30">
+        <v>3.1533000000000002</v>
+      </c>
+      <c r="U39" s="46">
+        <v>3.5903</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A40" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="21">
+        <f t="shared" si="0"/>
+        <v>2.2517</v>
+      </c>
+      <c r="H40" s="34">
+        <v>43264</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="K40" s="20">
+        <f t="shared" si="1"/>
+        <v>2.5510999999999999</v>
+      </c>
+      <c r="T40" s="30">
+        <v>3.3862000000000001</v>
+      </c>
+      <c r="U40" s="46">
+        <v>3.8056000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A41" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="21">
+        <f t="shared" si="0"/>
+        <v>2.3624000000000001</v>
+      </c>
+      <c r="H41" s="34">
+        <v>43264</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="K41" s="20">
+        <f t="shared" si="1"/>
+        <v>2.5786999999999995</v>
+      </c>
+      <c r="T41" s="30">
+        <v>3.5116999999999998</v>
+      </c>
+      <c r="U41" s="46">
+        <v>3.8422999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A42" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="19">
+        <v>20</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="21">
+        <f t="shared" si="0"/>
+        <v>2.1964999999999999</v>
+      </c>
+      <c r="K42" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T21" s="35">
-        <v>3.8975</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="20">
-        <v>20</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="22">
-        <f t="shared" si="0"/>
-        <v>2.0987</v>
-      </c>
-      <c r="K22" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="35">
-        <v>3.37391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A23" s="19" t="s">
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A43" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="22">
-        <f t="shared" si="0"/>
-        <v>1.4684000000000001</v>
-      </c>
-      <c r="H23" s="39">
-        <v>43262</v>
-      </c>
-      <c r="I23" s="21">
-        <v>1.1358999999999999</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="K23" s="21">
-        <f t="shared" si="1"/>
-        <v>3.0654999999999997</v>
-      </c>
-      <c r="U23" s="35">
-        <v>4.8596000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="22">
-        <f t="shared" si="0"/>
-        <v>1.5680000000000001</v>
-      </c>
-      <c r="H24" s="39">
-        <v>43262</v>
-      </c>
-      <c r="I24" s="21">
-        <v>1.2004999999999999</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="K24" s="21">
-        <f t="shared" si="1"/>
-        <v>2.3367</v>
-      </c>
-      <c r="U24" s="35">
-        <v>4.1954000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A25" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="22">
-        <f t="shared" si="0"/>
-        <v>1.9543000000000001</v>
-      </c>
-      <c r="H25" s="39">
-        <v>43262</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="K25" s="21">
-        <f t="shared" si="1"/>
-        <v>3.3645999999999998</v>
-      </c>
-      <c r="U25" s="35">
-        <v>5.1554000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A26" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="22">
-        <f t="shared" si="0"/>
-        <v>1.7964</v>
-      </c>
-      <c r="H26" s="39">
-        <v>43262</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="21">
-        <f t="shared" si="1"/>
-        <v>2.5335000000000001</v>
-      </c>
-      <c r="U26" s="35">
-        <v>4.3296999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="31">
-        <v>5</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="32">
-        <f t="shared" si="0"/>
-        <v>2.0362</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="T27" s="36">
-        <v>3.2254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="22">
-        <f t="shared" si="0"/>
-        <v>1.8745999999999998</v>
-      </c>
-      <c r="H28" s="39">
-        <v>43262</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="K28" s="21">
-        <f t="shared" si="1"/>
-        <v>2.5500999999999996</v>
-      </c>
-      <c r="U28" s="35">
-        <v>4.3174000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="31">
-        <v>7</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="32">
-        <f t="shared" si="0"/>
-        <v>2.2610999999999999</v>
-      </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="J29" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="K29" s="33">
-        <f t="shared" si="1"/>
-        <v>3.0541999999999998</v>
-      </c>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="T29" s="36">
-        <v>3.4518</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="22">
-        <f t="shared" si="0"/>
-        <v>2.3177000000000003</v>
-      </c>
-      <c r="H30" s="39">
-        <v>43264</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="K30" s="21">
-        <f t="shared" si="1"/>
-        <v>2.3706</v>
-      </c>
-      <c r="T30" s="35">
-        <v>3.4449999999999998</v>
-      </c>
-      <c r="U30" s="35">
-        <v>3.6543999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A31" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="22">
-        <f t="shared" si="0"/>
-        <v>1.3845000000000001</v>
-      </c>
-      <c r="H31" s="39">
-        <v>43264</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="K31" s="21">
-        <f t="shared" si="1"/>
-        <v>2.5208999999999997</v>
-      </c>
-      <c r="T31" s="35">
-        <v>2.968</v>
-      </c>
-      <c r="U31" s="35">
-        <v>3.7993999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A32" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="22">
-        <f t="shared" si="0"/>
-        <v>1.7791999999999999</v>
-      </c>
-      <c r="H32" s="39">
-        <v>43262</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="K32" s="21">
-        <f t="shared" si="1"/>
-        <v>3.0541999999999998</v>
-      </c>
-      <c r="U32" s="35">
-        <v>4.8780000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="22">
-        <f t="shared" si="0"/>
-        <v>1.6708999999999998</v>
-      </c>
-      <c r="H33" s="39">
-        <v>43262</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="K33" s="21">
-        <f t="shared" si="1"/>
-        <v>2.6768000000000001</v>
-      </c>
-      <c r="U33" s="35">
-        <v>4.4805000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A34" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="22">
-        <f t="shared" si="0"/>
-        <v>2.0454999999999997</v>
-      </c>
-      <c r="H34" s="39">
-        <v>43262</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="K34" s="21">
-        <f t="shared" si="1"/>
-        <v>2.4994000000000001</v>
-      </c>
-      <c r="U34" s="35">
-        <v>4.3773999999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A35" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="22">
-        <f t="shared" si="0"/>
-        <v>1.6638999999999999</v>
-      </c>
-      <c r="H35" s="39">
-        <v>43264</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="K35" s="21">
-        <f t="shared" si="1"/>
-        <v>2.7488999999999999</v>
-      </c>
-      <c r="T35" s="35">
-        <v>2.9033000000000002</v>
-      </c>
-      <c r="U35" s="35">
-        <v>4.0129000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A36" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="22">
-        <f t="shared" si="0"/>
-        <v>1.7162999999999997</v>
-      </c>
-      <c r="H36" s="39">
-        <v>43264</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="K36" s="21">
-        <f t="shared" si="1"/>
-        <v>2.4617</v>
-      </c>
-      <c r="T36" s="35">
-        <v>2.8633999999999999</v>
-      </c>
-      <c r="U36" s="35">
-        <v>3.7235999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A37" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="22">
-        <f t="shared" si="0"/>
-        <v>1.9057999999999999</v>
-      </c>
-      <c r="H37" s="39">
-        <v>43264</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="K37" s="21">
-        <f t="shared" si="1"/>
-        <v>2.9979</v>
-      </c>
-      <c r="T37" s="35">
-        <v>3.0173000000000001</v>
-      </c>
-      <c r="U37" s="35">
-        <v>4.2442000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A38" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="22">
-        <f t="shared" si="0"/>
-        <v>2.1303999999999998</v>
-      </c>
-      <c r="H38" s="39">
-        <v>43264</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="J38" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="K38" s="21">
-        <f t="shared" si="1"/>
-        <v>1.6375000000000002</v>
-      </c>
-      <c r="T38" s="35">
-        <v>3.2614999999999998</v>
-      </c>
-      <c r="U38" s="35">
-        <v>2.9514999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A39" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="22">
-        <f t="shared" si="0"/>
-        <v>2.0308000000000002</v>
-      </c>
-      <c r="H39" s="39">
-        <v>43264</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="K39" s="21">
-        <f t="shared" si="1"/>
-        <v>2.2900999999999998</v>
-      </c>
-      <c r="T39" s="35">
-        <v>3.1533000000000002</v>
-      </c>
-      <c r="U39" s="35">
-        <v>3.5903</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A40" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="22">
-        <f t="shared" si="0"/>
-        <v>2.2517</v>
-      </c>
-      <c r="H40" s="39">
-        <v>43264</v>
-      </c>
-      <c r="I40" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="J40" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="K40" s="21">
-        <f t="shared" si="1"/>
-        <v>2.5510999999999999</v>
-      </c>
-      <c r="T40" s="35">
-        <v>3.3862000000000001</v>
-      </c>
-      <c r="U40" s="35">
-        <v>3.8056000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A41" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="22">
-        <f t="shared" si="0"/>
-        <v>2.3624000000000001</v>
-      </c>
-      <c r="H41" s="39">
-        <v>43264</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="J41" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="K41" s="21">
-        <f t="shared" si="1"/>
-        <v>2.5786999999999995</v>
-      </c>
-      <c r="T41" s="35">
-        <v>3.5116999999999998</v>
-      </c>
-      <c r="U41" s="35">
-        <v>3.8422999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A42" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="20">
-        <v>20</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="22">
-        <f t="shared" si="0"/>
-        <v>2.1964999999999999</v>
-      </c>
-      <c r="K42" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A43" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="20">
-        <v>21</v>
-      </c>
-      <c r="C43" s="20" t="s">
+      <c r="B43" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="21">
         <f t="shared" si="0"/>
         <v>1.9264999999999999</v>
       </c>
-      <c r="K43" s="21">
+      <c r="H43" s="34">
+        <v>43265</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="K43" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.9814000000000007</v>
+      </c>
+      <c r="U43" s="46" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="20">
-        <v>22</v>
-      </c>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="21">
         <f t="shared" si="0"/>
         <v>2.2064999999999997</v>
       </c>
-      <c r="K44" s="21">
+      <c r="H44" s="34">
+        <v>43265</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="K44" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2266000000000004</v>
+      </c>
+      <c r="U44" s="46" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="21">
         <f t="shared" si="0"/>
         <v>2.2138</v>
       </c>
-      <c r="H45" s="39">
+      <c r="H45" s="34">
         <v>43264</v>
       </c>
-      <c r="I45" s="21" t="s">
+      <c r="I45" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="J45" s="21" t="s">
+      <c r="J45" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="20">
         <f t="shared" si="1"/>
         <v>2.6818999999999997</v>
       </c>
-      <c r="U45" s="35">
+      <c r="U45" s="46">
         <v>3.9504000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="21">
         <f t="shared" ref="E46:E67" si="2">D46-C46</f>
         <v>1.7383999999999999</v>
       </c>
-      <c r="H46" s="39">
+      <c r="H46" s="34">
         <v>43264</v>
       </c>
-      <c r="I46" s="21" t="s">
+      <c r="I46" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="J46" s="21" t="s">
+      <c r="J46" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="20">
         <f t="shared" ref="K46:K67" si="3">J46-I46</f>
         <v>2.1655999999999995</v>
       </c>
-      <c r="U46" s="35">
+      <c r="U46" s="46">
         <v>3.4756999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="20">
-        <v>3</v>
-      </c>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="21">
         <f t="shared" si="2"/>
         <v>2.1650999999999998</v>
       </c>
-      <c r="K47" s="21">
+      <c r="H47" s="34">
+        <v>43265</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="K47" s="20">
+        <f t="shared" si="3"/>
+        <v>2.5255999999999998</v>
+      </c>
+      <c r="T47" s="30">
+        <v>3.2597999999999998</v>
+      </c>
+      <c r="U47" s="46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A48" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="21">
+        <f t="shared" si="2"/>
+        <v>1.6613999999999998</v>
+      </c>
+      <c r="H48" s="34">
+        <v>43265</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="K48" s="20">
+        <f t="shared" si="3"/>
+        <v>2.5252999999999997</v>
+      </c>
+      <c r="T48" s="30">
+        <v>2.8835000000000002</v>
+      </c>
+      <c r="U48" s="46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A49" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="19">
+        <v>5</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="21">
+        <f t="shared" si="2"/>
+        <v>2.0070999999999999</v>
+      </c>
+      <c r="K49" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T47" s="35">
-        <v>3.2597999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A48" s="19" t="s">
+      <c r="T49" s="30">
+        <v>3.1505999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A50" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="20">
-        <v>4</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="22">
+      <c r="B50" s="19">
+        <v>6</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="21">
         <f t="shared" si="2"/>
-        <v>1.6613999999999998</v>
-      </c>
-      <c r="K48" s="21">
+        <v>2.4840999999999998</v>
+      </c>
+      <c r="K50" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T48" s="35">
-        <v>2.8835000000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A49" s="19" t="s">
+      <c r="T50" s="30">
+        <v>3.6092</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A51" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="20">
-        <v>5</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" s="22">
+      <c r="B51" s="19">
+        <v>7</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="21">
         <f t="shared" si="2"/>
-        <v>2.0070999999999999</v>
-      </c>
-      <c r="K49" s="21">
+        <v>2.7742</v>
+      </c>
+      <c r="K51" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T49" s="35">
-        <v>3.1505999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A50" s="19" t="s">
+      <c r="T51" s="30">
+        <v>3.4051</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A52" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="20">
-        <v>6</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="22">
+      <c r="B52" s="19">
+        <v>8</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="21">
         <f t="shared" si="2"/>
-        <v>2.4840999999999998</v>
-      </c>
-      <c r="K50" s="21">
+        <v>2.2294999999999998</v>
+      </c>
+      <c r="K52" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T50" s="35">
-        <v>3.6092</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A51" s="19" t="s">
+      <c r="T52" s="30">
+        <v>3.3058999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A53" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="20">
-        <v>7</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="22">
+      <c r="B53" s="19">
+        <v>9</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="21">
         <f t="shared" si="2"/>
-        <v>2.7742</v>
-      </c>
-      <c r="K51" s="21">
+        <v>1.8876000000000002</v>
+      </c>
+      <c r="K53" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T51" s="35">
-        <v>3.4051</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A52" s="19" t="s">
+      <c r="T53" s="30">
+        <v>3.0091000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A54" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="20">
-        <v>8</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="22">
+      <c r="B54" s="19">
+        <v>10</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="21">
         <f t="shared" si="2"/>
-        <v>2.2294999999999998</v>
-      </c>
-      <c r="K52" s="21">
+        <v>2.6745999999999999</v>
+      </c>
+      <c r="K54" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T52" s="35">
-        <v>3.3058999999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A53" s="19" t="s">
+      <c r="T54" s="30">
+        <v>3.7162000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A55" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="20">
-        <v>9</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" s="22">
+      <c r="B55" s="19">
+        <v>11</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="21">
         <f t="shared" si="2"/>
-        <v>1.8876000000000002</v>
-      </c>
-      <c r="K53" s="21">
+        <v>1.7654999999999998</v>
+      </c>
+      <c r="K55" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T53" s="35">
-        <v>3.0091000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A54" s="19" t="s">
+      <c r="T55" s="30">
+        <v>2.9218000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A56" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="20">
-        <v>10</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E54" s="22">
+      <c r="B56" s="19">
+        <v>12</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="21">
         <f t="shared" si="2"/>
-        <v>2.6745999999999999</v>
-      </c>
-      <c r="K54" s="21">
+        <v>2.6536999999999997</v>
+      </c>
+      <c r="K56" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T54" s="35">
-        <v>3.7162000000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A55" s="19" t="s">
+      <c r="T56" s="30">
+        <v>3.6695000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A57" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="20">
-        <v>11</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" s="22">
+      <c r="B57" s="19">
+        <v>13</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="21">
         <f t="shared" si="2"/>
-        <v>1.7654999999999998</v>
-      </c>
-      <c r="K55" s="21">
+        <v>2.2622999999999998</v>
+      </c>
+      <c r="K57" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T55" s="35">
-        <v>2.9218000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A56" s="19" t="s">
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A58" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="20">
-        <v>12</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="22">
+      <c r="B58" s="19">
+        <v>14</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="21">
         <f t="shared" si="2"/>
-        <v>2.6536999999999997</v>
-      </c>
-      <c r="K56" s="21">
+        <v>2.0528</v>
+      </c>
+      <c r="K58" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T56" s="35">
-        <v>3.6695000000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A57" s="19" t="s">
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A59" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="20">
-        <v>13</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="22">
+      <c r="B59" s="19">
+        <v>15</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="21">
         <f t="shared" si="2"/>
-        <v>2.2622999999999998</v>
-      </c>
-      <c r="K57" s="21">
+        <v>1.8818000000000001</v>
+      </c>
+      <c r="K59" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A58" s="19" t="s">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A60" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="20">
-        <v>14</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="22">
+      <c r="B60" s="19">
+        <v>16</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="21">
         <f t="shared" si="2"/>
-        <v>2.0528</v>
-      </c>
-      <c r="K58" s="21">
+        <v>1.6708000000000001</v>
+      </c>
+      <c r="K60" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A59" s="19" t="s">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A61" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="20">
-        <v>15</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="22">
+      <c r="B61" s="19">
+        <v>17</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="21">
         <f t="shared" si="2"/>
-        <v>1.8818000000000001</v>
-      </c>
-      <c r="K59" s="21">
+        <v>2.0573000000000001</v>
+      </c>
+      <c r="K61" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A60" s="19" t="s">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A62" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="20">
-        <v>16</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E60" s="22">
+      <c r="B62" s="19">
+        <v>18</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="21">
         <f t="shared" si="2"/>
-        <v>1.6708000000000001</v>
-      </c>
-      <c r="K60" s="21">
+        <v>1.8468999999999998</v>
+      </c>
+      <c r="K62" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A61" s="19" t="s">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A63" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="20">
-        <v>17</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E61" s="22">
+      <c r="B63" s="19">
+        <v>19</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="21">
         <f t="shared" si="2"/>
-        <v>2.0573000000000001</v>
-      </c>
-      <c r="K61" s="21">
+        <v>2.2845</v>
+      </c>
+      <c r="K63" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A62" s="19" t="s">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A64" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="20">
-        <v>18</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="22">
+      <c r="B64" s="19">
+        <v>20</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="21">
         <f t="shared" si="2"/>
-        <v>1.8468999999999998</v>
-      </c>
-      <c r="K62" s="21">
+        <v>1.8836999999999997</v>
+      </c>
+      <c r="K64" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A63" s="19" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A65" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="20">
-        <v>19</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" s="22">
+      <c r="B65" s="19">
+        <v>21</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="21">
         <f t="shared" si="2"/>
-        <v>2.2845</v>
-      </c>
-      <c r="K63" s="21">
+        <v>1.9964000000000002</v>
+      </c>
+      <c r="K65" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A64" s="19" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A66" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="20">
-        <v>20</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E64" s="22">
+      <c r="B66" s="19">
+        <v>22</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="21">
         <f t="shared" si="2"/>
-        <v>1.8836999999999997</v>
-      </c>
-      <c r="K64" s="21">
+        <v>1.4735999999999998</v>
+      </c>
+      <c r="K66" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A65" s="19" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A67" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="20">
-        <v>21</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" s="22">
+      <c r="B67" s="19">
+        <v>23</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="21">
         <f t="shared" si="2"/>
-        <v>1.9964000000000002</v>
-      </c>
-      <c r="K65" s="21">
+        <v>1.6666999999999998</v>
+      </c>
+      <c r="K67" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A66" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="20">
-        <v>22</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E66" s="22">
-        <f t="shared" si="2"/>
-        <v>1.4735999999999998</v>
-      </c>
-      <c r="K66" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A67" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="20">
-        <v>23</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E67" s="22">
-        <f t="shared" si="2"/>
-        <v>1.6666999999999998</v>
-      </c>
-      <c r="K67" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="E68" s="22"/>
+      <c r="E68" s="21"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="E69" s="22"/>
+      <c r="E69" s="21"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="E70" s="22"/>
+      <c r="E70" s="21"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="E71" s="22"/>
+      <c r="E71" s="21"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="E72" s="22"/>
+      <c r="E72" s="21"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="E73" s="22"/>
+      <c r="E73" s="21"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="E74" s="22"/>
+      <c r="E74" s="21"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="E75" s="22"/>
+      <c r="E75" s="21"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="E76" s="22"/>
+      <c r="E76" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documents/Larvae Data Sheet.xlsx
+++ b/Documents/Larvae Data Sheet.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chembug\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF04E45C-FD8C-4C6E-8724-5B143C08D1C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Larvae Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Regression 1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="128">
   <si>
     <t>Cohort</t>
   </si>
@@ -310,13 +311,112 @@
   </si>
   <si>
     <t>Sample #:</t>
+  </si>
+  <si>
+    <t>BE12-0702</t>
+  </si>
+  <si>
+    <t>0723-0104</t>
+  </si>
+  <si>
+    <t>0723-0201</t>
+  </si>
+  <si>
+    <t>0723-0213</t>
+  </si>
+  <si>
+    <t>0723-0221</t>
+  </si>
+  <si>
+    <t>0723-0229</t>
+  </si>
+  <si>
+    <t>0723-0305</t>
+  </si>
+  <si>
+    <t>0723-0312</t>
+  </si>
+  <si>
+    <t>BE16-0702</t>
+  </si>
+  <si>
+    <t>0723-0110</t>
+  </si>
+  <si>
+    <t>0723-0403</t>
+  </si>
+  <si>
+    <t>0723-0404</t>
+  </si>
+  <si>
+    <t>0723-0405</t>
+  </si>
+  <si>
+    <t>0723-0410</t>
+  </si>
+  <si>
+    <t>0723-0415</t>
+  </si>
+  <si>
+    <t>0723-0417</t>
+  </si>
+  <si>
+    <t>0723-0418</t>
+  </si>
+  <si>
+    <t>0723-0426</t>
+  </si>
+  <si>
+    <t>1.0007</t>
+  </si>
+  <si>
+    <t>0.7540</t>
+  </si>
+  <si>
+    <t>0.8349</t>
+  </si>
+  <si>
+    <t>0.9467</t>
+  </si>
+  <si>
+    <t>0.8457</t>
+  </si>
+  <si>
+    <t>0.8348</t>
+  </si>
+  <si>
+    <t>0.8339</t>
+  </si>
+  <si>
+    <t>0.7374</t>
+  </si>
+  <si>
+    <t>0.9095</t>
+  </si>
+  <si>
+    <t>0.9604</t>
+  </si>
+  <si>
+    <t>1.0242</t>
+  </si>
+  <si>
+    <t>0.8714</t>
+  </si>
+  <si>
+    <t>0.8209</t>
+  </si>
+  <si>
+    <t>0.7886</t>
+  </si>
+  <si>
+    <t>0.9394</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,8 +455,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +488,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -393,11 +526,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,9 +559,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="60% - Accent2" xfId="4" builtinId="36"/>
+    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -737,17 +892,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="8" bestFit="1" customWidth="1"/>
@@ -764,7 +919,7 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -784,6 +939,20 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="K2" s="10" t="s">
         <v>85</v>
       </c>
@@ -794,6 +963,20 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
       <c r="K3" s="10" t="s">
         <v>89</v>
       </c>
@@ -804,6 +987,20 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
       <c r="K4" s="9" t="s">
         <v>86</v>
       </c>
@@ -814,6 +1011,20 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
       <c r="K5" s="9" t="s">
         <v>87</v>
       </c>
@@ -824,6 +1035,20 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
       <c r="K6" s="9" t="s">
         <v>88</v>
       </c>
@@ -832,6 +1057,202 @@
       <c r="N6" s="9" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.62419999999999998</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -840,7 +1261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Documents/Larvae Data Sheet.xlsx
+++ b/Documents/Larvae Data Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chembug\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elapa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF04E45C-FD8C-4C6E-8724-5B143C08D1C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6A7C811-C061-4660-802A-070AD71B3DA6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7242" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Larvae Tracker" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="136">
   <si>
     <t>Cohort</t>
   </si>
@@ -410,6 +415,30 @@
   </si>
   <si>
     <t>0.9394</t>
+  </si>
+  <si>
+    <t>Dry Larvae Mass</t>
+  </si>
+  <si>
+    <t>Sampling Group</t>
+  </si>
+  <si>
+    <t>Sampling Group:</t>
+  </si>
+  <si>
+    <t>A: First day of fifth instar</t>
+  </si>
+  <si>
+    <t>B: Midpoint of fifth instar</t>
+  </si>
+  <si>
+    <t>C: End of fifth instar</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -502,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -525,6 +554,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -533,7 +631,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,7 +651,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -561,20 +658,41 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Accent2" xfId="4" builtinId="36"/>
@@ -893,366 +1011,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.26171875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.26171875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1015625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.20703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.3125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.15625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5234375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.89453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.05078125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="17.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="K2" s="10" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="M2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="K3" s="10" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="M3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="K4" s="9" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="M4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8"/>
+      <c r="O4" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="K5" s="9" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="M5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="K6" s="9" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="M6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8"/>
+      <c r="O6" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="13">
         <v>0.62419999999999998</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="M8" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="M9" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="M10" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="M11" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="M19" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1268,17 +1470,17 @@
       <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.68359375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.41796875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.83984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.26171875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.83984375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1298,7 +1500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1320,7 +1522,7 @@
         <v>5.5499999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1342,7 +1544,7 @@
         <v>7.1200000000000041E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1364,7 +1566,7 @@
         <v>7.0799999999999974E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1386,7 +1588,7 @@
         <v>7.1899999999999964E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1408,7 +1610,7 @@
         <v>8.7899999999999978E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -1430,7 +1632,7 @@
         <v>0.12880000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1452,7 +1654,7 @@
         <v>0.11210000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1474,7 +1676,7 @@
         <v>9.8999999999999977E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1496,7 +1698,7 @@
         <v>7.4400000000000022E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1518,7 +1720,7 @@
         <v>0.12450000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1540,7 +1742,7 @@
         <v>9.9299999999999944E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1562,7 +1764,7 @@
         <v>0.10489999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -1584,7 +1786,7 @@
         <v>0.16880000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1606,7 +1808,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -1628,7 +1830,7 @@
         <v>0.1462</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
@@ -1650,7 +1852,7 @@
         <v>0.32989999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
@@ -1672,7 +1874,7 @@
         <v>-5.5200000000000027E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -1694,7 +1896,7 @@
         <v>0.11809999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -1716,7 +1918,7 @@
         <v>0.1235</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
@@ -1738,7 +1940,7 @@
         <v>6230.5329000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
@@ -1760,7 +1962,7 @@
         <v>0.16850000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
         <v>64</v>
       </c>
@@ -1782,7 +1984,7 @@
         <v>0.15929999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
         <v>68</v>
       </c>
@@ -1804,7 +2006,7 @@
         <v>0.18960000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
         <v>72</v>
       </c>
@@ -1826,7 +2028,7 @@
         <v>0.19309999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
         <v>76</v>
       </c>

--- a/Documents/Larvae Data Sheet.xlsx
+++ b/Documents/Larvae Data Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elapa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chembug\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6A7C811-C061-4660-802A-070AD71B3DA6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ABFFABC-8348-4EB6-AEFE-8F20E81DD2F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7242" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Larvae Tracker" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="146">
   <si>
     <t>Cohort</t>
   </si>
@@ -426,9 +421,6 @@
     <t>Sampling Group:</t>
   </si>
   <si>
-    <t>A: First day of fifth instar</t>
-  </si>
-  <si>
     <t>B: Midpoint of fifth instar</t>
   </si>
   <si>
@@ -439,6 +431,39 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>0724-0109</t>
+  </si>
+  <si>
+    <t>0724-0114</t>
+  </si>
+  <si>
+    <t>0724-0118</t>
+  </si>
+  <si>
+    <t>0724-0122</t>
+  </si>
+  <si>
+    <t>0724-0129</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A: Second day of fifth instar</t>
+  </si>
+  <si>
+    <t>1.0011</t>
+  </si>
+  <si>
+    <t>0.4825</t>
+  </si>
+  <si>
+    <t>0.6105</t>
+  </si>
+  <si>
+    <t>0.7520</t>
   </si>
 </sst>
 </file>
@@ -531,7 +556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -546,17 +571,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -665,7 +679,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -674,25 +687,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Accent2" xfId="4" builtinId="36"/>
@@ -1011,78 +1027,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.26171875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.26171875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.68359375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1015625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.20703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.3125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.15625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5234375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.89453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.05078125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="17.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="M2" s="9" t="s">
         <v>85</v>
       </c>
@@ -1091,15 +1107,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>135</v>
+      <c r="C3" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>124</v>
@@ -1118,15 +1134,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>135</v>
+      <c r="C4" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>125</v>
@@ -1145,15 +1161,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>135</v>
+      <c r="C5" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>126</v>
@@ -1172,15 +1188,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>135</v>
+      <c r="C6" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>127</v>
@@ -1199,15 +1215,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>135</v>
+      <c r="C7" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="D7" s="13">
         <v>0.62419999999999998</v>
@@ -1219,15 +1235,15 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>135</v>
+      <c r="C8" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>113</v>
@@ -1242,15 +1258,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>134</v>
+      <c r="C9" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>122</v>
@@ -1262,18 +1278,18 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="M9" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>134</v>
+      <c r="C10" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>114</v>
@@ -1285,18 +1301,18 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="M10" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>134</v>
+      <c r="C11" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>115</v>
@@ -1308,18 +1324,18 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="M11" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>134</v>
+      <c r="C12" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>116</v>
@@ -1331,15 +1347,15 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>134</v>
+      <c r="C13" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>117</v>
@@ -1351,15 +1367,15 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>134</v>
+      <c r="C14" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>118</v>
@@ -1371,15 +1387,15 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>134</v>
+      <c r="C15" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>119</v>
@@ -1391,15 +1407,15 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>134</v>
+      <c r="C16" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>120</v>
@@ -1411,15 +1427,15 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>134</v>
+      <c r="C17" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>121</v>
@@ -1431,30 +1447,106 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="M19" s="17"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1470,17 +1562,17 @@
       <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.68359375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.41796875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.83984375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.26171875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.83984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1500,7 +1592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1522,7 +1614,7 @@
         <v>5.5499999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1544,7 +1636,7 @@
         <v>7.1200000000000041E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1566,7 +1658,7 @@
         <v>7.0799999999999974E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1588,7 +1680,7 @@
         <v>7.1899999999999964E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1610,7 +1702,7 @@
         <v>8.7899999999999978E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -1632,7 +1724,7 @@
         <v>0.12880000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1654,7 +1746,7 @@
         <v>0.11210000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1676,7 +1768,7 @@
         <v>9.8999999999999977E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1698,7 +1790,7 @@
         <v>7.4400000000000022E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1720,7 +1812,7 @@
         <v>0.12450000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1742,7 +1834,7 @@
         <v>9.9299999999999944E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1764,7 +1856,7 @@
         <v>0.10489999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -1786,7 +1878,7 @@
         <v>0.16880000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1808,7 +1900,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -1830,7 +1922,7 @@
         <v>0.1462</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
@@ -1852,7 +1944,7 @@
         <v>0.32989999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
@@ -1874,7 +1966,7 @@
         <v>-5.5200000000000027E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -1896,7 +1988,7 @@
         <v>0.11809999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -1918,7 +2010,7 @@
         <v>0.1235</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
@@ -1940,7 +2032,7 @@
         <v>6230.5329000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
@@ -1962,7 +2054,7 @@
         <v>0.16850000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>64</v>
       </c>
@@ -1984,7 +2076,7 @@
         <v>0.15929999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>68</v>
       </c>
@@ -2006,7 +2098,7 @@
         <v>0.18960000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>72</v>
       </c>
@@ -2028,7 +2120,7 @@
         <v>0.19309999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>76</v>
       </c>

--- a/Documents/Larvae Data Sheet.xlsx
+++ b/Documents/Larvae Data Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chembug\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ABFFABC-8348-4EB6-AEFE-8F20E81DD2F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{565A70F1-9453-40CC-928D-C3EAA4549495}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Larvae Tracker" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="148">
   <si>
     <t>Cohort</t>
   </si>
@@ -205,9 +205,6 @@
     <t>1.2632</t>
   </si>
   <si>
-    <t>06231</t>
-  </si>
-  <si>
     <t>5A</t>
   </si>
   <si>
@@ -464,13 +461,22 @@
   </si>
   <si>
     <t>0.7520</t>
+  </si>
+  <si>
+    <t>0.9680</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0.6231</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,8 +537,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,6 +566,11 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -638,14 +656,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,9 +728,17 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="60% - Accent2" xfId="4" builtinId="36"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -728,6 +755,1229 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dry vs. Wet Plant Weight</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Regression 1'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>"Wet" Plant Wt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Regression 1'!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5.5499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1200000000000041E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0799999999999974E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1899999999999964E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7899999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11210000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8999999999999977E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4400000000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12450000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9299999999999944E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1462</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1235</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16850000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15929999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18960000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19309999999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.17210000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Regression 1'!$G$2:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.19840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35150000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22150000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50319999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72059999999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72029999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8508</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70820000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96449999999999991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93209999999999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2649000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1745000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2541</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3893</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3542999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1388-4CC9-8700-EE4C13BF24AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="434447968"/>
+        <c:axId val="434454200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="434447968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dry Plant Weight</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434454200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="434454200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Wet</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Plant Weight</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434447968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6399ED22-4234-4B8A-BC51-DC65377A4BCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1027,10 +2277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +2290,7 @@
     <col min="4" max="4" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" style="7" bestFit="1" customWidth="1"/>
@@ -1056,433 +2306,437 @@
         <v>1</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F1" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>96</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="M2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="M3" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="M4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="M5" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="M6" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" s="13">
         <v>0.62419999999999998</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="M8" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="C9" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
       <c r="M9" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="M10" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="M11" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="D12" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="A14" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="27">
         <v>0.93840000000000001</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="28">
+        <v>0.85470000000000002</v>
+      </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="14" t="s">
+        <v>145</v>
+      </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -1490,63 +2744,68 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>140</v>
-      </c>
       <c r="D22" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="15" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1556,10 +2815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,9 +2829,10 @@
     <col min="4" max="4" width="19.85546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1591,8 +2851,11 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1613,8 +2876,11 @@
         <f>E2-B2</f>
         <v>5.5499999999999994E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="4">
+        <v>0.19840000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1635,8 +2901,11 @@
         <f t="shared" ref="F3:F26" si="1">E3-B3</f>
         <v>7.1200000000000041E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="4">
+        <v>0.35150000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1657,8 +2926,11 @@
         <f t="shared" si="1"/>
         <v>7.0799999999999974E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="4">
+        <v>0.26590000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1679,8 +2951,11 @@
         <f t="shared" si="1"/>
         <v>7.1899999999999964E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="4">
+        <v>0.28720000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1701,8 +2976,11 @@
         <f t="shared" si="1"/>
         <v>8.7899999999999978E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="4">
+        <v>0.22150000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -1723,8 +3001,11 @@
         <f t="shared" si="1"/>
         <v>0.12880000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="4">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1745,8 +3026,11 @@
         <f t="shared" si="1"/>
         <v>0.11210000000000009</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="4">
+        <v>0.50319999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1767,8 +3051,11 @@
         <f t="shared" si="1"/>
         <v>9.8999999999999977E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="4">
+        <v>0.42749999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1789,8 +3076,11 @@
         <f t="shared" si="1"/>
         <v>7.4400000000000022E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="4">
+        <v>0.43359999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1811,8 +3101,11 @@
         <f t="shared" si="1"/>
         <v>0.12450000000000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="4">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1833,8 +3126,11 @@
         <f t="shared" si="1"/>
         <v>9.9299999999999944E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="4">
+        <v>0.72059999999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1855,8 +3151,11 @@
         <f t="shared" si="1"/>
         <v>0.10489999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="4">
+        <v>0.72029999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -1877,8 +3176,11 @@
         <f t="shared" si="1"/>
         <v>0.16880000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="4">
+        <v>0.8508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1899,8 +3201,11 @@
         <f t="shared" si="1"/>
         <v>0.124</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="4">
+        <v>0.70820000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -1921,52 +3226,19 @@
         <f t="shared" si="1"/>
         <v>0.1462</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.3569</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="0"/>
-        <v>0.86070000000000002</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="1"/>
-        <v>0.32989999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>0.83379999999999999</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="1"/>
-        <v>-5.5200000000000027E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="4">
+        <v>0.63569999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -1987,8 +3259,11 @@
         <f t="shared" si="1"/>
         <v>0.11809999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="4">
+        <v>0.96449999999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -2009,8 +3284,11 @@
         <f t="shared" si="1"/>
         <v>0.1235</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="4">
+        <v>0.93209999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
@@ -2025,124 +3303,189 @@
         <v>0.79610000000000003</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>6230.5329000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.15599999999999997</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.79610000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" si="0"/>
         <v>1.2649000000000001</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="1"/>
         <v>0.16850000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="4">
+        <v>1.2649000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" si="0"/>
         <v>1.1745000000000001</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
         <v>0.15929999999999994</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="4">
+        <v>1.1745000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" si="0"/>
         <v>1.2541</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="1"/>
         <v>0.18960000000000005</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="4">
+        <v>1.2541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="D25" s="5">
         <f t="shared" si="0"/>
         <v>1.3893</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="1"/>
         <v>0.19309999999999994</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="4">
+        <v>1.3893</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" si="0"/>
         <v>1.3542999999999998</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="1"/>
         <v>0.17210000000000003</v>
       </c>
+      <c r="G26" s="4">
+        <v>1.3542999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.3569</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.32989999999999997</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.86070000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="4">
+        <v>-5.5200000000000027E-2</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.83379999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>